--- a/raw_data/20200818_saline/20200818_Sensor2_Test_26.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_26.xlsx
@@ -1,870 +1,1286 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A412AE-4BBA-49DB-A3AA-0E36E3A4F211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>22872.785294</v>
+        <v>22872.785294000001</v>
       </c>
       <c r="B2" s="1">
-        <v>6.353551</v>
+        <v>6.3535510000000004</v>
       </c>
       <c r="C2" s="1">
-        <v>1244.150000</v>
+        <v>1244.1500000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>-308.993000</v>
+        <v>-308.99299999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>22882.835257</v>
+        <v>22882.835256999999</v>
       </c>
       <c r="G2" s="1">
-        <v>6.356343</v>
+        <v>6.3563429999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>1268.560000</v>
+        <v>1268.56</v>
       </c>
       <c r="I2" s="1">
-        <v>-265.668000</v>
+        <v>-265.66800000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>22892.919386</v>
+        <v>22892.919386000001</v>
       </c>
       <c r="L2" s="1">
-        <v>6.359144</v>
+        <v>6.3591439999999997</v>
       </c>
       <c r="M2" s="1">
-        <v>1303.900000</v>
+        <v>1303.9000000000001</v>
       </c>
       <c r="N2" s="1">
-        <v>-202.756000</v>
+        <v>-202.756</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>22903.128045</v>
+        <v>22903.128045000001</v>
       </c>
       <c r="Q2" s="1">
-        <v>6.361980</v>
+        <v>6.36198</v>
       </c>
       <c r="R2" s="1">
-        <v>1315.410000</v>
+        <v>1315.41</v>
       </c>
       <c r="S2" s="1">
-        <v>-184.535000</v>
+        <v>-184.535</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>22913.685390</v>
+        <v>22913.685389999999</v>
       </c>
       <c r="V2" s="1">
-        <v>6.364913</v>
+        <v>6.3649129999999996</v>
       </c>
       <c r="W2" s="1">
-        <v>1328.230000</v>
+        <v>1328.23</v>
       </c>
       <c r="X2" s="1">
-        <v>-170.772000</v>
+        <v>-170.77199999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>22924.173298</v>
+        <v>22924.173298000002</v>
       </c>
       <c r="AA2" s="1">
         <v>6.367826</v>
       </c>
       <c r="AB2" s="1">
-        <v>1345.270000</v>
+        <v>1345.27</v>
       </c>
       <c r="AC2" s="1">
-        <v>-168.481000</v>
+        <v>-168.48099999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>22934.721219</v>
+        <v>22934.721218999999</v>
       </c>
       <c r="AF2" s="1">
-        <v>6.370756</v>
+        <v>6.3707560000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>1357.910000</v>
+        <v>1357.91</v>
       </c>
       <c r="AH2" s="1">
-        <v>-178.163000</v>
+        <v>-178.16300000000001</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>22945.191765</v>
       </c>
       <c r="AK2" s="1">
-        <v>6.373664</v>
+        <v>6.3736639999999998</v>
       </c>
       <c r="AL2" s="1">
-        <v>1378.360000</v>
+        <v>1378.36</v>
       </c>
       <c r="AM2" s="1">
-        <v>-208.107000</v>
+        <v>-208.107</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>22955.782343</v>
+        <v>22955.782342999999</v>
       </c>
       <c r="AP2" s="1">
-        <v>6.376606</v>
+        <v>6.3766059999999998</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1399.850000</v>
+        <v>1399.85</v>
       </c>
       <c r="AR2" s="1">
-        <v>-252.011000</v>
+        <v>-252.011</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>22966.758810</v>
+        <v>22966.758809999999</v>
       </c>
       <c r="AU2" s="1">
-        <v>6.379655</v>
+        <v>6.3796549999999996</v>
       </c>
       <c r="AV2" s="1">
-        <v>1424.240000</v>
+        <v>1424.24</v>
       </c>
       <c r="AW2" s="1">
-        <v>-312.080000</v>
+        <v>-312.08</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>22978.133593</v>
+        <v>22978.133592999999</v>
       </c>
       <c r="AZ2" s="1">
-        <v>6.382815</v>
+        <v>6.3828149999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1443.480000</v>
+        <v>1443.48</v>
       </c>
       <c r="BB2" s="1">
-        <v>-364.331000</v>
+        <v>-364.33100000000002</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>22989.051499</v>
+        <v>22989.051499000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>6.385848</v>
+        <v>6.3858480000000002</v>
       </c>
       <c r="BF2" s="1">
-        <v>1528.740000</v>
+        <v>1528.74</v>
       </c>
       <c r="BG2" s="1">
-        <v>-613.183000</v>
+        <v>-613.18299999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>23000.070156</v>
+        <v>23000.070156000002</v>
       </c>
       <c r="BJ2" s="1">
-        <v>6.388908</v>
+        <v>6.3889079999999998</v>
       </c>
       <c r="BK2" s="1">
-        <v>1683.900000</v>
+        <v>1683.9</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1058.980000</v>
+        <v>-1058.98</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>23010.856658</v>
+        <v>23010.856658000001</v>
       </c>
       <c r="BO2" s="1">
-        <v>6.391905</v>
+        <v>6.3919050000000004</v>
       </c>
       <c r="BP2" s="1">
-        <v>1980.140000</v>
+        <v>1980.14</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1830.000000</v>
+        <v>-1830</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>23021.642161</v>
       </c>
       <c r="BT2" s="1">
-        <v>6.394901</v>
+        <v>6.3949009999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>2366.460000</v>
+        <v>2366.46</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2718.540000</v>
+        <v>-2718.54</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>23032.643890</v>
+        <v>23032.643889999999</v>
       </c>
       <c r="BY2" s="1">
-        <v>6.397957</v>
+        <v>6.3979569999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2854.280000</v>
+        <v>2854.28</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3689.040000</v>
+        <v>-3689.04</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>23043.592084</v>
       </c>
       <c r="CD2" s="1">
-        <v>6.400998</v>
+        <v>6.4009980000000004</v>
       </c>
       <c r="CE2" s="1">
-        <v>4279.980000</v>
+        <v>4279.9799999999996</v>
       </c>
       <c r="CF2" s="1">
-        <v>-6035.510000</v>
+        <v>-6035.51</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>22873.137482</v>
+        <v>22873.137481999998</v>
       </c>
       <c r="B3" s="1">
-        <v>6.353649</v>
+        <v>6.3536489999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>1243.500000</v>
+        <v>1243.5</v>
       </c>
       <c r="D3" s="1">
-        <v>-308.643000</v>
+        <v>-308.64299999999997</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>22883.178455</v>
+        <v>22883.178455000001</v>
       </c>
       <c r="G3" s="1">
-        <v>6.356438</v>
+        <v>6.3564379999999998</v>
       </c>
       <c r="H3" s="1">
-        <v>1268.110000</v>
+        <v>1268.1099999999999</v>
       </c>
       <c r="I3" s="1">
-        <v>-266.558000</v>
+        <v>-266.55799999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>22893.339529</v>
+        <v>22893.339529000001</v>
       </c>
       <c r="L3" s="1">
-        <v>6.359261</v>
+        <v>6.3592610000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>1303.710000</v>
+        <v>1303.71</v>
       </c>
       <c r="N3" s="1">
-        <v>-203.113000</v>
+        <v>-203.113</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>22903.578908</v>
       </c>
       <c r="Q3" s="1">
-        <v>6.362105</v>
+        <v>6.3621049999999997</v>
       </c>
       <c r="R3" s="1">
-        <v>1315.380000</v>
+        <v>1315.38</v>
       </c>
       <c r="S3" s="1">
-        <v>-184.578000</v>
+        <v>-184.578</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>22914.091118</v>
       </c>
       <c r="V3" s="1">
-        <v>6.365025</v>
+        <v>6.3650250000000002</v>
       </c>
       <c r="W3" s="1">
-        <v>1328.210000</v>
+        <v>1328.21</v>
       </c>
       <c r="X3" s="1">
-        <v>-170.743000</v>
+        <v>-170.74299999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>22924.539377</v>
+        <v>22924.539377000001</v>
       </c>
       <c r="AA3" s="1">
         <v>6.367928</v>
       </c>
       <c r="AB3" s="1">
-        <v>1345.180000</v>
+        <v>1345.18</v>
       </c>
       <c r="AC3" s="1">
-        <v>-168.510000</v>
+        <v>-168.51</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>22935.095699</v>
+        <v>22935.095699000001</v>
       </c>
       <c r="AF3" s="1">
-        <v>6.370860</v>
+        <v>6.3708600000000004</v>
       </c>
       <c r="AG3" s="1">
-        <v>1357.960000</v>
+        <v>1357.96</v>
       </c>
       <c r="AH3" s="1">
-        <v>-178.232000</v>
+        <v>-178.232</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>22945.578692</v>
+        <v>22945.578691999999</v>
       </c>
       <c r="AK3" s="1">
-        <v>6.373772</v>
+        <v>6.3737719999999998</v>
       </c>
       <c r="AL3" s="1">
-        <v>1378.350000</v>
+        <v>1378.35</v>
       </c>
       <c r="AM3" s="1">
-        <v>-208.106000</v>
+        <v>-208.10599999999999</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>22956.174182</v>
+        <v>22956.174181999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>6.376715</v>
+        <v>6.3767149999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1399.790000</v>
+        <v>1399.79</v>
       </c>
       <c r="AR3" s="1">
-        <v>-251.987000</v>
+        <v>-251.98699999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>22967.498344</v>
@@ -873,13 +1289,13 @@
         <v>6.379861</v>
       </c>
       <c r="AV3" s="1">
-        <v>1424.250000</v>
+        <v>1424.25</v>
       </c>
       <c r="AW3" s="1">
-        <v>-312.080000</v>
+        <v>-312.08</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>22978.501097</v>
@@ -888,482 +1304,482 @@
         <v>6.382917</v>
       </c>
       <c r="BA3" s="1">
-        <v>1443.470000</v>
+        <v>1443.47</v>
       </c>
       <c r="BB3" s="1">
-        <v>-364.353000</v>
+        <v>-364.35300000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>22989.444331</v>
+        <v>22989.444330999999</v>
       </c>
       <c r="BE3" s="1">
-        <v>6.385957</v>
+        <v>6.3859570000000003</v>
       </c>
       <c r="BF3" s="1">
-        <v>1528.700000</v>
+        <v>1528.7</v>
       </c>
       <c r="BG3" s="1">
-        <v>-613.207000</v>
+        <v>-613.20699999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>23000.477340</v>
+        <v>23000.477340000001</v>
       </c>
       <c r="BJ3" s="1">
-        <v>6.389021</v>
+        <v>6.3890209999999996</v>
       </c>
       <c r="BK3" s="1">
-        <v>1683.730000</v>
+        <v>1683.73</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1059.040000</v>
+        <v>-1059.04</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>23011.601117</v>
+        <v>23011.601116999998</v>
       </c>
       <c r="BO3" s="1">
-        <v>6.392111</v>
+        <v>6.3921109999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1979.760000</v>
+        <v>1979.76</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1830.240000</v>
+        <v>-1830.24</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>23022.430302</v>
+        <v>23022.430302000001</v>
       </c>
       <c r="BT3" s="1">
-        <v>6.395120</v>
+        <v>6.3951200000000004</v>
       </c>
       <c r="BU3" s="1">
-        <v>2366.950000</v>
+        <v>2366.9499999999998</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2718.470000</v>
+        <v>-2718.47</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>23032.812529</v>
+        <v>23032.812528999999</v>
       </c>
       <c r="BY3" s="1">
-        <v>6.398003</v>
+        <v>6.3980030000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2853.310000</v>
+        <v>2853.31</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3689.520000</v>
+        <v>-3689.52</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>23043.874804</v>
+        <v>23043.874803999999</v>
       </c>
       <c r="CD3" s="1">
-        <v>6.401076</v>
+        <v>6.4010759999999998</v>
       </c>
       <c r="CE3" s="1">
-        <v>4264.290000</v>
+        <v>4264.29</v>
       </c>
       <c r="CF3" s="1">
-        <v>-6031.910000</v>
+        <v>-6031.91</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>22873.566980</v>
+        <v>22873.56698</v>
       </c>
       <c r="B4" s="1">
-        <v>6.353769</v>
+        <v>6.3537689999999998</v>
       </c>
       <c r="C4" s="1">
-        <v>1243.520000</v>
+        <v>1243.52</v>
       </c>
       <c r="D4" s="1">
-        <v>-308.472000</v>
+        <v>-308.47199999999998</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>22883.597575</v>
       </c>
       <c r="G4" s="1">
-        <v>6.356555</v>
+        <v>6.3565550000000002</v>
       </c>
       <c r="H4" s="1">
-        <v>1269.370000</v>
+        <v>1269.3699999999999</v>
       </c>
       <c r="I4" s="1">
-        <v>-265.561000</v>
+        <v>-265.56099999999998</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>22893.684248</v>
+        <v>22893.684248000001</v>
       </c>
       <c r="L4" s="1">
-        <v>6.359357</v>
+        <v>6.3593570000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>1303.750000</v>
+        <v>1303.75</v>
       </c>
       <c r="N4" s="1">
-        <v>-202.369000</v>
+        <v>-202.369</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>22903.890398</v>
       </c>
       <c r="Q4" s="1">
-        <v>6.362192</v>
+        <v>6.3621920000000003</v>
       </c>
       <c r="R4" s="1">
-        <v>1315.350000</v>
+        <v>1315.35</v>
       </c>
       <c r="S4" s="1">
-        <v>-184.531000</v>
+        <v>-184.53100000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>22914.433854</v>
+        <v>22914.433853999999</v>
       </c>
       <c r="V4" s="1">
-        <v>6.365121</v>
+        <v>6.3651210000000003</v>
       </c>
       <c r="W4" s="1">
-        <v>1328.310000</v>
+        <v>1328.31</v>
       </c>
       <c r="X4" s="1">
-        <v>-170.819000</v>
+        <v>-170.81899999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>22924.891013</v>
       </c>
       <c r="AA4" s="1">
-        <v>6.368025</v>
+        <v>6.3680250000000003</v>
       </c>
       <c r="AB4" s="1">
-        <v>1345.230000</v>
+        <v>1345.23</v>
       </c>
       <c r="AC4" s="1">
-        <v>-168.449000</v>
+        <v>-168.44900000000001</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>22935.440075</v>
+        <v>22935.440074999999</v>
       </c>
       <c r="AF4" s="1">
-        <v>6.370956</v>
+        <v>6.3709559999999996</v>
       </c>
       <c r="AG4" s="1">
-        <v>1357.940000</v>
+        <v>1357.94</v>
       </c>
       <c r="AH4" s="1">
-        <v>-178.220000</v>
+        <v>-178.22</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>22946.273043</v>
+        <v>22946.273043000001</v>
       </c>
       <c r="AK4" s="1">
-        <v>6.373965</v>
+        <v>6.3739650000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>1378.330000</v>
+        <v>1378.33</v>
       </c>
       <c r="AM4" s="1">
-        <v>-208.098000</v>
+        <v>-208.09800000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>22956.897351</v>
       </c>
       <c r="AP4" s="1">
-        <v>6.376916</v>
+        <v>6.3769159999999996</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1399.820000</v>
+        <v>1399.82</v>
       </c>
       <c r="AR4" s="1">
-        <v>-252.015000</v>
+        <v>-252.01499999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>22967.863399</v>
+        <v>22967.863399000002</v>
       </c>
       <c r="AU4" s="1">
-        <v>6.379962</v>
+        <v>6.3799619999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>1424.220000</v>
+        <v>1424.22</v>
       </c>
       <c r="AW4" s="1">
-        <v>-312.093000</v>
+        <v>-312.09300000000002</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>22978.858744</v>
+        <v>22978.858744000001</v>
       </c>
       <c r="AZ4" s="1">
-        <v>6.383016</v>
+        <v>6.3830159999999996</v>
       </c>
       <c r="BA4" s="1">
-        <v>1443.510000</v>
+        <v>1443.51</v>
       </c>
       <c r="BB4" s="1">
-        <v>-364.320000</v>
+        <v>-364.32</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>22989.804922</v>
+        <v>22989.804921999999</v>
       </c>
       <c r="BE4" s="1">
-        <v>6.386057</v>
+        <v>6.3860570000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1528.670000</v>
+        <v>1528.67</v>
       </c>
       <c r="BG4" s="1">
-        <v>-613.219000</v>
+        <v>-613.21900000000005</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>23001.157882</v>
       </c>
       <c r="BJ4" s="1">
-        <v>6.389211</v>
+        <v>6.3892110000000004</v>
       </c>
       <c r="BK4" s="1">
-        <v>1683.760000</v>
+        <v>1683.76</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1059.130000</v>
+        <v>-1059.1300000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>23011.719165</v>
+        <v>23011.719164999999</v>
       </c>
       <c r="BO4" s="1">
         <v>6.392144</v>
       </c>
       <c r="BP4" s="1">
-        <v>1979.780000</v>
+        <v>1979.78</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1830.300000</v>
+        <v>-1830.3</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>23022.548326</v>
       </c>
       <c r="BT4" s="1">
-        <v>6.395152</v>
+        <v>6.3951520000000004</v>
       </c>
       <c r="BU4" s="1">
-        <v>2366.850000</v>
+        <v>2366.85</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2717.750000</v>
+        <v>-2717.75</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>23033.235120</v>
+        <v>23033.235120000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>6.398121</v>
+        <v>6.3981209999999997</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2853.630000</v>
+        <v>2853.63</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3690.080000</v>
+        <v>-3690.08</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>23044.406514</v>
+        <v>23044.406513999998</v>
       </c>
       <c r="CD4" s="1">
         <v>6.401224</v>
       </c>
       <c r="CE4" s="1">
-        <v>4286.870000</v>
+        <v>4286.87</v>
       </c>
       <c r="CF4" s="1">
-        <v>-6029.260000</v>
+        <v>-6029.26</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>22873.843747</v>
+        <v>22873.843746999999</v>
       </c>
       <c r="B5" s="1">
-        <v>6.353845</v>
+        <v>6.3538449999999997</v>
       </c>
       <c r="C5" s="1">
-        <v>1243.570000</v>
+        <v>1243.57</v>
       </c>
       <c r="D5" s="1">
-        <v>-308.452000</v>
+        <v>-308.452</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>22883.867894</v>
+        <v>22883.867893999999</v>
       </c>
       <c r="G5" s="1">
-        <v>6.356630</v>
+        <v>6.35663</v>
       </c>
       <c r="H5" s="1">
-        <v>1268.440000</v>
+        <v>1268.44</v>
       </c>
       <c r="I5" s="1">
-        <v>-266.099000</v>
+        <v>-266.09899999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>22894.029434</v>
       </c>
       <c r="L5" s="1">
-        <v>6.359453</v>
+        <v>6.3594530000000002</v>
       </c>
       <c r="M5" s="1">
-        <v>1303.680000</v>
+        <v>1303.68</v>
       </c>
       <c r="N5" s="1">
-        <v>-203.194000</v>
+        <v>-203.19399999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>22904.242805</v>
+        <v>22904.242805000002</v>
       </c>
       <c r="Q5" s="1">
-        <v>6.362290</v>
+        <v>6.3622899999999998</v>
       </c>
       <c r="R5" s="1">
-        <v>1315.330000</v>
+        <v>1315.33</v>
       </c>
       <c r="S5" s="1">
-        <v>-184.429000</v>
+        <v>-184.429</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>22914.773117</v>
+        <v>22914.773117000001</v>
       </c>
       <c r="V5" s="1">
-        <v>6.365215</v>
+        <v>6.3652150000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>1328.190000</v>
+        <v>1328.19</v>
       </c>
       <c r="X5" s="1">
-        <v>-170.642000</v>
+        <v>-170.642</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>22925.585902</v>
+        <v>22925.585901999999</v>
       </c>
       <c r="AA5" s="1">
-        <v>6.368218</v>
+        <v>6.3682179999999997</v>
       </c>
       <c r="AB5" s="1">
-        <v>1345.220000</v>
+        <v>1345.22</v>
       </c>
       <c r="AC5" s="1">
-        <v>-168.461000</v>
+        <v>-168.46100000000001</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>22936.124929</v>
+        <v>22936.124929000001</v>
       </c>
       <c r="AF5" s="1">
-        <v>6.371146</v>
+        <v>6.3711460000000004</v>
       </c>
       <c r="AG5" s="1">
-        <v>1357.970000</v>
+        <v>1357.97</v>
       </c>
       <c r="AH5" s="1">
-        <v>-178.169000</v>
+        <v>-178.16900000000001</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>22946.624212</v>
+        <v>22946.624211999999</v>
       </c>
       <c r="AK5" s="1">
-        <v>6.374062</v>
+        <v>6.3740620000000003</v>
       </c>
       <c r="AL5" s="1">
-        <v>1378.370000</v>
+        <v>1378.37</v>
       </c>
       <c r="AM5" s="1">
-        <v>-208.093000</v>
+        <v>-208.09299999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>22957.251989</v>
@@ -1372,617 +1788,617 @@
         <v>6.377014</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1399.850000</v>
+        <v>1399.85</v>
       </c>
       <c r="AR5" s="1">
-        <v>-251.989000</v>
+        <v>-251.989</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>22968.226503</v>
+        <v>22968.226503000002</v>
       </c>
       <c r="AU5" s="1">
-        <v>6.380063</v>
+        <v>6.3800629999999998</v>
       </c>
       <c r="AV5" s="1">
-        <v>1424.240000</v>
+        <v>1424.24</v>
       </c>
       <c r="AW5" s="1">
-        <v>-312.095000</v>
+        <v>-312.09500000000003</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>22979.534264</v>
+        <v>22979.534264000002</v>
       </c>
       <c r="AZ5" s="1">
-        <v>6.383204</v>
+        <v>6.3832040000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1443.480000</v>
+        <v>1443.48</v>
       </c>
       <c r="BB5" s="1">
-        <v>-364.323000</v>
+        <v>-364.32299999999998</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>22990.486921</v>
       </c>
       <c r="BE5" s="1">
-        <v>6.386246</v>
+        <v>6.3862459999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1528.720000</v>
+        <v>1528.72</v>
       </c>
       <c r="BG5" s="1">
-        <v>-613.226000</v>
+        <v>-613.226</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>23001.268459</v>
+        <v>23001.268458999999</v>
       </c>
       <c r="BJ5" s="1">
-        <v>6.389241</v>
+        <v>6.3892410000000002</v>
       </c>
       <c r="BK5" s="1">
-        <v>1683.680000</v>
+        <v>1683.68</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1059.140000</v>
+        <v>-1059.1400000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>23012.116521</v>
       </c>
       <c r="BO5" s="1">
-        <v>6.392255</v>
+        <v>6.3922549999999996</v>
       </c>
       <c r="BP5" s="1">
-        <v>1979.690000</v>
+        <v>1979.69</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1830.200000</v>
+        <v>-1830.2</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>23022.961982</v>
+        <v>23022.961982000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>6.395267</v>
+        <v>6.3952669999999996</v>
       </c>
       <c r="BU5" s="1">
-        <v>2367.430000</v>
+        <v>2367.4299999999998</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2717.400000</v>
+        <v>-2717.4</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>23033.656720</v>
+        <v>23033.656719999999</v>
       </c>
       <c r="BY5" s="1">
-        <v>6.398238</v>
+        <v>6.3982380000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2853.050000</v>
+        <v>2853.05</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3690.390000</v>
+        <v>-3690.39</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>23044.946161</v>
       </c>
       <c r="CD5" s="1">
-        <v>6.401374</v>
+        <v>6.4013739999999997</v>
       </c>
       <c r="CE5" s="1">
-        <v>4266.170000</v>
+        <v>4266.17</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6018.310000</v>
+        <v>-6018.31</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>22874.181060</v>
+        <v>22874.181059999999</v>
       </c>
       <c r="B6" s="1">
-        <v>6.353939</v>
+        <v>6.3539389999999996</v>
       </c>
       <c r="C6" s="1">
-        <v>1243.710000</v>
+        <v>1243.71</v>
       </c>
       <c r="D6" s="1">
-        <v>-308.795000</v>
+        <v>-308.79500000000002</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>22884.210629</v>
+        <v>22884.210629000001</v>
       </c>
       <c r="G6" s="1">
         <v>6.356725</v>
       </c>
       <c r="H6" s="1">
-        <v>1268.720000</v>
+        <v>1268.72</v>
       </c>
       <c r="I6" s="1">
-        <v>-266.115000</v>
+        <v>-266.11500000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>22894.376152</v>
+        <v>22894.376152000001</v>
       </c>
       <c r="L6" s="1">
-        <v>6.359549</v>
+        <v>6.3595490000000003</v>
       </c>
       <c r="M6" s="1">
-        <v>1303.920000</v>
+        <v>1303.92</v>
       </c>
       <c r="N6" s="1">
-        <v>-202.977000</v>
+        <v>-202.977</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>22904.936954</v>
+        <v>22904.936954000001</v>
       </c>
       <c r="Q6" s="1">
         <v>6.362482</v>
       </c>
       <c r="R6" s="1">
-        <v>1315.470000</v>
+        <v>1315.47</v>
       </c>
       <c r="S6" s="1">
-        <v>-184.442000</v>
+        <v>-184.44200000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>22915.461564</v>
+        <v>22915.461564000001</v>
       </c>
       <c r="V6" s="1">
-        <v>6.365406</v>
+        <v>6.3654060000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>1328.230000</v>
+        <v>1328.23</v>
       </c>
       <c r="X6" s="1">
-        <v>-170.686000</v>
+        <v>-170.68600000000001</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>22925.934127</v>
       </c>
       <c r="AA6" s="1">
-        <v>6.368315</v>
+        <v>6.3683149999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>1345.240000</v>
+        <v>1345.24</v>
       </c>
       <c r="AC6" s="1">
-        <v>-168.489000</v>
+        <v>-168.489</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>22936.474608</v>
       </c>
       <c r="AF6" s="1">
-        <v>6.371243</v>
+        <v>6.3712429999999998</v>
       </c>
       <c r="AG6" s="1">
-        <v>1357.970000</v>
+        <v>1357.97</v>
       </c>
       <c r="AH6" s="1">
-        <v>-178.169000</v>
+        <v>-178.16900000000001</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>22946.970952</v>
       </c>
       <c r="AK6" s="1">
-        <v>6.374159</v>
+        <v>6.3741589999999997</v>
       </c>
       <c r="AL6" s="1">
-        <v>1378.350000</v>
+        <v>1378.35</v>
       </c>
       <c r="AM6" s="1">
-        <v>-208.107000</v>
+        <v>-208.107</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>22957.920101</v>
       </c>
       <c r="AP6" s="1">
-        <v>6.377200</v>
+        <v>6.3772000000000002</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1399.840000</v>
+        <v>1399.84</v>
       </c>
       <c r="AR6" s="1">
-        <v>-251.984000</v>
+        <v>-251.98400000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>22968.897558</v>
+        <v>22968.897558000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>6.380249</v>
+        <v>6.3802490000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>1424.230000</v>
+        <v>1424.23</v>
       </c>
       <c r="AW6" s="1">
-        <v>-312.092000</v>
+        <v>-312.09199999999998</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>22979.940984</v>
+        <v>22979.940984000001</v>
       </c>
       <c r="AZ6" s="1">
-        <v>6.383317</v>
+        <v>6.3833169999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1443.460000</v>
+        <v>1443.46</v>
       </c>
       <c r="BB6" s="1">
-        <v>-364.289000</v>
+        <v>-364.28899999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>22990.934811</v>
+        <v>22990.934810999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>6.386371</v>
+        <v>6.3863709999999996</v>
       </c>
       <c r="BF6" s="1">
-        <v>1528.700000</v>
+        <v>1528.7</v>
       </c>
       <c r="BG6" s="1">
-        <v>-613.185000</v>
+        <v>-613.18499999999995</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>23001.637484</v>
+        <v>23001.637483999999</v>
       </c>
       <c r="BJ6" s="1">
-        <v>6.389344</v>
+        <v>6.3893440000000004</v>
       </c>
       <c r="BK6" s="1">
-        <v>1683.740000</v>
+        <v>1683.74</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1059.020000</v>
+        <v>-1059.02</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>23012.539052</v>
       </c>
       <c r="BO6" s="1">
-        <v>6.392372</v>
+        <v>6.3923719999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1979.680000</v>
+        <v>1979.68</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1830.430000</v>
+        <v>-1830.43</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>23023.375150</v>
+        <v>23023.37515</v>
       </c>
       <c r="BT6" s="1">
-        <v>6.395382</v>
+        <v>6.3953819999999997</v>
       </c>
       <c r="BU6" s="1">
-        <v>2368.150000</v>
+        <v>2368.15</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2717.120000</v>
+        <v>-2717.12</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>23034.092703</v>
+        <v>23034.092702999998</v>
       </c>
       <c r="BY6" s="1">
-        <v>6.398359</v>
+        <v>6.3983590000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2853.950000</v>
+        <v>2853.95</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3690.220000</v>
+        <v>-3690.22</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>23045.488785</v>
+        <v>23045.488785000001</v>
       </c>
       <c r="CD6" s="1">
-        <v>6.401525</v>
+        <v>6.4015250000000004</v>
       </c>
       <c r="CE6" s="1">
-        <v>4273.290000</v>
+        <v>4273.29</v>
       </c>
       <c r="CF6" s="1">
-        <v>-6035.370000</v>
+        <v>-6035.37</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>22874.524290</v>
+        <v>22874.524290000001</v>
       </c>
       <c r="B7" s="1">
-        <v>6.354035</v>
+        <v>6.3540349999999997</v>
       </c>
       <c r="C7" s="1">
-        <v>1243.550000</v>
+        <v>1243.55</v>
       </c>
       <c r="D7" s="1">
-        <v>-308.751000</v>
+        <v>-308.75099999999998</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>22884.559813</v>
       </c>
       <c r="G7" s="1">
-        <v>6.356822</v>
+        <v>6.3568220000000002</v>
       </c>
       <c r="H7" s="1">
-        <v>1269.320000</v>
+        <v>1269.32</v>
       </c>
       <c r="I7" s="1">
-        <v>-265.486000</v>
+        <v>-265.48599999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>22895.069048</v>
+        <v>22895.069048000001</v>
       </c>
       <c r="L7" s="1">
-        <v>6.359741</v>
+        <v>6.3597409999999996</v>
       </c>
       <c r="M7" s="1">
-        <v>1303.930000</v>
+        <v>1303.93</v>
       </c>
       <c r="N7" s="1">
-        <v>-202.555000</v>
+        <v>-202.55500000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>22905.288153</v>
+        <v>22905.288153000001</v>
       </c>
       <c r="Q7" s="1">
-        <v>6.362580</v>
+        <v>6.3625800000000003</v>
       </c>
       <c r="R7" s="1">
-        <v>1315.470000</v>
+        <v>1315.47</v>
       </c>
       <c r="S7" s="1">
-        <v>-184.473000</v>
+        <v>-184.47300000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>22915.803831</v>
+        <v>22915.803831000001</v>
       </c>
       <c r="V7" s="1">
-        <v>6.365501</v>
+        <v>6.3655010000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>1328.110000</v>
+        <v>1328.11</v>
       </c>
       <c r="X7" s="1">
-        <v>-170.924000</v>
+        <v>-170.92400000000001</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>22926.282816</v>
+        <v>22926.282815999999</v>
       </c>
       <c r="AA7" s="1">
-        <v>6.368412</v>
+        <v>6.3684120000000002</v>
       </c>
       <c r="AB7" s="1">
-        <v>1345.370000</v>
+        <v>1345.37</v>
       </c>
       <c r="AC7" s="1">
-        <v>-168.503000</v>
+        <v>-168.50299999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>22936.819792</v>
+        <v>22936.819791999998</v>
       </c>
       <c r="AF7" s="1">
-        <v>6.371339</v>
+        <v>6.3713389999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>1357.970000</v>
+        <v>1357.97</v>
       </c>
       <c r="AH7" s="1">
-        <v>-178.254000</v>
+        <v>-178.25399999999999</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>22947.632579</v>
+        <v>22947.632579000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>6.374342</v>
+        <v>6.3743420000000004</v>
       </c>
       <c r="AL7" s="1">
-        <v>1378.340000</v>
+        <v>1378.34</v>
       </c>
       <c r="AM7" s="1">
-        <v>-208.076000</v>
+        <v>-208.07599999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>22958.359590</v>
+        <v>22958.35959</v>
       </c>
       <c r="AP7" s="1">
-        <v>6.377322</v>
+        <v>6.3773220000000004</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1399.820000</v>
+        <v>1399.82</v>
       </c>
       <c r="AR7" s="1">
-        <v>-252.013000</v>
+        <v>-252.01300000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>22969.320329</v>
+        <v>22969.320328999998</v>
       </c>
       <c r="AU7" s="1">
-        <v>6.380367</v>
+        <v>6.3803669999999997</v>
       </c>
       <c r="AV7" s="1">
-        <v>1424.230000</v>
+        <v>1424.23</v>
       </c>
       <c r="AW7" s="1">
-        <v>-312.097000</v>
+        <v>-312.09699999999998</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>22980.317478</v>
+        <v>22980.317478000001</v>
       </c>
       <c r="AZ7" s="1">
-        <v>6.383422</v>
+        <v>6.3834220000000004</v>
       </c>
       <c r="BA7" s="1">
-        <v>1443.480000</v>
+        <v>1443.48</v>
       </c>
       <c r="BB7" s="1">
-        <v>-364.323000</v>
+        <v>-364.32299999999998</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>22991.278040</v>
+        <v>22991.278040000001</v>
       </c>
       <c r="BE7" s="1">
-        <v>6.386466</v>
+        <v>6.3864660000000004</v>
       </c>
       <c r="BF7" s="1">
-        <v>1528.740000</v>
+        <v>1528.74</v>
       </c>
       <c r="BG7" s="1">
-        <v>-613.214000</v>
+        <v>-613.21400000000006</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>23002.015434</v>
+        <v>23002.015434000001</v>
       </c>
       <c r="BJ7" s="1">
-        <v>6.389449</v>
+        <v>6.3894489999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1683.690000</v>
+        <v>1683.69</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1059.000000</v>
+        <v>-1059</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>23012.955228</v>
+        <v>23012.955227999999</v>
       </c>
       <c r="BO7" s="1">
-        <v>6.392488</v>
+        <v>6.3924880000000002</v>
       </c>
       <c r="BP7" s="1">
-        <v>1979.670000</v>
+        <v>1979.67</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1830.390000</v>
+        <v>-1830.39</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>23023.792809</v>
+        <v>23023.792808999999</v>
       </c>
       <c r="BT7" s="1">
-        <v>6.395498</v>
+        <v>6.3954979999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>2368.500000</v>
+        <v>2368.5</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2717.210000</v>
+        <v>-2717.21</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>23034.524223</v>
@@ -1991,180 +2407,180 @@
         <v>6.398479</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2852.950000</v>
+        <v>2852.95</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3690.140000</v>
+        <v>-3690.14</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>23046.028431</v>
+        <v>23046.028430999999</v>
       </c>
       <c r="CD7" s="1">
         <v>6.401675</v>
       </c>
       <c r="CE7" s="1">
-        <v>4284.060000</v>
+        <v>4284.0600000000004</v>
       </c>
       <c r="CF7" s="1">
-        <v>-6020.900000</v>
+        <v>-6020.9</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>22875.204770</v>
+        <v>22875.20477</v>
       </c>
       <c r="B8" s="1">
-        <v>6.354224</v>
+        <v>6.3542240000000003</v>
       </c>
       <c r="C8" s="1">
-        <v>1243.610000</v>
+        <v>1243.6099999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-308.675000</v>
+        <v>-308.67500000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>22885.254250</v>
+        <v>22885.254250000002</v>
       </c>
       <c r="G8" s="1">
-        <v>6.357015</v>
+        <v>6.3570149999999996</v>
       </c>
       <c r="H8" s="1">
-        <v>1268.780000</v>
+        <v>1268.78</v>
       </c>
       <c r="I8" s="1">
-        <v>-265.558000</v>
+        <v>-265.55799999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>22895.413302</v>
+        <v>22895.413302000001</v>
       </c>
       <c r="L8" s="1">
-        <v>6.359837</v>
+        <v>6.3598369999999997</v>
       </c>
       <c r="M8" s="1">
-        <v>1303.950000</v>
+        <v>1303.95</v>
       </c>
       <c r="N8" s="1">
-        <v>-203.184000</v>
+        <v>-203.184</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>22905.630857</v>
       </c>
       <c r="Q8" s="1">
-        <v>6.362675</v>
+        <v>6.3626750000000003</v>
       </c>
       <c r="R8" s="1">
-        <v>1315.410000</v>
+        <v>1315.41</v>
       </c>
       <c r="S8" s="1">
-        <v>-184.537000</v>
+        <v>-184.53700000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>22916.148027</v>
+        <v>22916.148026999999</v>
       </c>
       <c r="V8" s="1">
-        <v>6.365597</v>
+        <v>6.3655970000000002</v>
       </c>
       <c r="W8" s="1">
-        <v>1328.270000</v>
+        <v>1328.27</v>
       </c>
       <c r="X8" s="1">
-        <v>-170.691000</v>
+        <v>-170.691</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>22926.938493</v>
+        <v>22926.938493000001</v>
       </c>
       <c r="AA8" s="1">
-        <v>6.368594</v>
+        <v>6.3685939999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>1345.210000</v>
+        <v>1345.21</v>
       </c>
       <c r="AC8" s="1">
-        <v>-168.480000</v>
+        <v>-168.48</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>22937.483974</v>
+        <v>22937.483973999999</v>
       </c>
       <c r="AF8" s="1">
-        <v>6.371523</v>
+        <v>6.3715229999999998</v>
       </c>
       <c r="AG8" s="1">
-        <v>1357.900000</v>
+        <v>1357.9</v>
       </c>
       <c r="AH8" s="1">
-        <v>-178.155000</v>
+        <v>-178.155</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>22948.018994</v>
+        <v>22948.018993999998</v>
       </c>
       <c r="AK8" s="1">
-        <v>6.374450</v>
+        <v>6.3744500000000004</v>
       </c>
       <c r="AL8" s="1">
-        <v>1378.350000</v>
+        <v>1378.35</v>
       </c>
       <c r="AM8" s="1">
-        <v>-208.089000</v>
+        <v>-208.089</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>22958.718659</v>
+        <v>22958.718658999998</v>
       </c>
       <c r="AP8" s="1">
-        <v>6.377422</v>
+        <v>6.3774220000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1399.820000</v>
+        <v>1399.82</v>
       </c>
       <c r="AR8" s="1">
-        <v>-251.975000</v>
+        <v>-251.97499999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>22969.687686</v>
+        <v>22969.687686000001</v>
       </c>
       <c r="AU8" s="1">
-        <v>6.380469</v>
+        <v>6.3804689999999997</v>
       </c>
       <c r="AV8" s="1">
-        <v>1424.230000</v>
+        <v>1424.23</v>
       </c>
       <c r="AW8" s="1">
-        <v>-312.044000</v>
+        <v>-312.04399999999998</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>22980.695894</v>
@@ -2173,58 +2589,58 @@
         <v>6.383527</v>
       </c>
       <c r="BA8" s="1">
-        <v>1443.480000</v>
+        <v>1443.48</v>
       </c>
       <c r="BB8" s="1">
-        <v>-364.329000</v>
+        <v>-364.32900000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>22991.850466</v>
       </c>
       <c r="BE8" s="1">
-        <v>6.386625</v>
+        <v>6.3866250000000004</v>
       </c>
       <c r="BF8" s="1">
-        <v>1528.670000</v>
+        <v>1528.67</v>
       </c>
       <c r="BG8" s="1">
-        <v>-613.167000</v>
+        <v>-613.16700000000003</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>23002.430089</v>
+        <v>23002.430089000001</v>
       </c>
       <c r="BJ8" s="1">
         <v>6.389564</v>
       </c>
       <c r="BK8" s="1">
-        <v>1683.720000</v>
+        <v>1683.72</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1059.100000</v>
+        <v>-1059.0999999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>23013.358975</v>
+        <v>23013.358974999999</v>
       </c>
       <c r="BO8" s="1">
-        <v>6.392600</v>
+        <v>6.3925999999999998</v>
       </c>
       <c r="BP8" s="1">
-        <v>1979.880000</v>
+        <v>1979.88</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1830.340000</v>
+        <v>-1830.34</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>23024.206941</v>
@@ -2233,1193 +2649,1193 @@
         <v>6.395613</v>
       </c>
       <c r="BU8" s="1">
-        <v>2369.100000</v>
+        <v>2369.1</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2717.130000</v>
+        <v>-2717.13</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>23034.945823</v>
+        <v>23034.945822999998</v>
       </c>
       <c r="BY8" s="1">
-        <v>6.398596</v>
+        <v>6.3985960000000004</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2853.620000</v>
+        <v>2853.62</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3690.500000</v>
+        <v>-3690.5</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>23046.569104</v>
+        <v>23046.569103999998</v>
       </c>
       <c r="CD8" s="1">
-        <v>6.401825</v>
+        <v>6.4018249999999997</v>
       </c>
       <c r="CE8" s="1">
-        <v>4262.250000</v>
+        <v>4262.25</v>
       </c>
       <c r="CF8" s="1">
-        <v>-6030.530000</v>
+        <v>-6030.53</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>22875.550977</v>
+        <v>22875.550976999999</v>
       </c>
       <c r="B9" s="1">
-        <v>6.354320</v>
+        <v>6.3543200000000004</v>
       </c>
       <c r="C9" s="1">
-        <v>1243.710000</v>
+        <v>1243.71</v>
       </c>
       <c r="D9" s="1">
-        <v>-309.177000</v>
+        <v>-309.17700000000002</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>22885.601413</v>
       </c>
       <c r="G9" s="1">
-        <v>6.357112</v>
+        <v>6.3571119999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>1268.970000</v>
+        <v>1268.97</v>
       </c>
       <c r="I9" s="1">
-        <v>-266.287000</v>
+        <v>-266.28699999999998</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>22895.761991</v>
+        <v>22895.761990999999</v>
       </c>
       <c r="L9" s="1">
         <v>6.359934</v>
       </c>
       <c r="M9" s="1">
-        <v>1303.730000</v>
+        <v>1303.73</v>
       </c>
       <c r="N9" s="1">
-        <v>-203.011000</v>
+        <v>-203.011</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>22906.282600</v>
+        <v>22906.282599999999</v>
       </c>
       <c r="Q9" s="1">
-        <v>6.362856</v>
+        <v>6.3628559999999998</v>
       </c>
       <c r="R9" s="1">
-        <v>1315.340000</v>
+        <v>1315.34</v>
       </c>
       <c r="S9" s="1">
-        <v>-184.509000</v>
+        <v>-184.50899999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>22916.790843</v>
+        <v>22916.790842999999</v>
       </c>
       <c r="V9" s="1">
-        <v>6.365775</v>
+        <v>6.3657750000000002</v>
       </c>
       <c r="W9" s="1">
-        <v>1328.160000</v>
+        <v>1328.16</v>
       </c>
       <c r="X9" s="1">
-        <v>-170.834000</v>
+        <v>-170.834</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>22927.328845</v>
       </c>
       <c r="AA9" s="1">
-        <v>6.368702</v>
+        <v>6.3687019999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>1345.180000</v>
+        <v>1345.18</v>
       </c>
       <c r="AC9" s="1">
-        <v>-168.441000</v>
+        <v>-168.441</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>22937.847502</v>
+        <v>22937.847502000001</v>
       </c>
       <c r="AF9" s="1">
-        <v>6.371624</v>
+        <v>6.3716239999999997</v>
       </c>
       <c r="AG9" s="1">
-        <v>1357.940000</v>
+        <v>1357.94</v>
       </c>
       <c r="AH9" s="1">
-        <v>-178.179000</v>
+        <v>-178.179</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>22948.365664</v>
+        <v>22948.365664000001</v>
       </c>
       <c r="AK9" s="1">
-        <v>6.374546</v>
+        <v>6.3745459999999996</v>
       </c>
       <c r="AL9" s="1">
-        <v>1378.340000</v>
+        <v>1378.34</v>
       </c>
       <c r="AM9" s="1">
-        <v>-208.082000</v>
+        <v>-208.08199999999999</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>22959.079747</v>
       </c>
       <c r="AP9" s="1">
-        <v>6.377522</v>
+        <v>6.3775219999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1399.810000</v>
+        <v>1399.81</v>
       </c>
       <c r="AR9" s="1">
-        <v>-251.950000</v>
+        <v>-251.95</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>22970.051748</v>
+        <v>22970.051748000002</v>
       </c>
       <c r="AU9" s="1">
-        <v>6.380570</v>
+        <v>6.3805699999999996</v>
       </c>
       <c r="AV9" s="1">
-        <v>1424.240000</v>
+        <v>1424.24</v>
       </c>
       <c r="AW9" s="1">
-        <v>-312.099000</v>
+        <v>-312.09899999999999</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>22981.111046</v>
+        <v>22981.111046000002</v>
       </c>
       <c r="AZ9" s="1">
         <v>6.383642</v>
       </c>
       <c r="BA9" s="1">
-        <v>1443.460000</v>
+        <v>1443.46</v>
       </c>
       <c r="BB9" s="1">
-        <v>-364.340000</v>
+        <v>-364.34</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>22991.999719</v>
+        <v>22991.999718999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>6.386667</v>
+        <v>6.3866670000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1528.680000</v>
+        <v>1528.68</v>
       </c>
       <c r="BG9" s="1">
-        <v>-613.194000</v>
+        <v>-613.19399999999996</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>23002.761945</v>
+        <v>23002.761944999998</v>
       </c>
       <c r="BJ9" s="1">
-        <v>6.389656</v>
+        <v>6.3896559999999996</v>
       </c>
       <c r="BK9" s="1">
-        <v>1683.660000</v>
+        <v>1683.66</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1059.050000</v>
+        <v>-1059.05</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>23013.755739</v>
       </c>
       <c r="BO9" s="1">
-        <v>6.392710</v>
+        <v>6.3927100000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1979.610000</v>
+        <v>1979.61</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1830.300000</v>
+        <v>-1830.3</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>23024.624572</v>
+        <v>23024.624572000001</v>
       </c>
       <c r="BT9" s="1">
-        <v>6.395729</v>
+        <v>6.3957290000000002</v>
       </c>
       <c r="BU9" s="1">
-        <v>2369.800000</v>
+        <v>2369.8000000000002</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2717.260000</v>
+        <v>-2717.26</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>23035.366926</v>
+        <v>23035.366925999999</v>
       </c>
       <c r="BY9" s="1">
-        <v>6.398713</v>
+        <v>6.3987129999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2852.830000</v>
+        <v>2852.83</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3689.980000</v>
+        <v>-3689.98</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>23047.108222</v>
+        <v>23047.108221999999</v>
       </c>
       <c r="CD9" s="1">
-        <v>6.401975</v>
+        <v>6.4019750000000002</v>
       </c>
       <c r="CE9" s="1">
-        <v>4283.320000</v>
+        <v>4283.32</v>
       </c>
       <c r="CF9" s="1">
-        <v>-6032.110000</v>
+        <v>-6032.11</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>22875.892256</v>
+        <v>22875.892255999999</v>
       </c>
       <c r="B10" s="1">
-        <v>6.354415</v>
+        <v>6.3544150000000004</v>
       </c>
       <c r="C10" s="1">
-        <v>1243.630000</v>
+        <v>1243.6300000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>-308.401000</v>
+        <v>-308.40100000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>22885.942696</v>
+        <v>22885.942695999998</v>
       </c>
       <c r="G10" s="1">
-        <v>6.357206</v>
+        <v>6.3572059999999997</v>
       </c>
       <c r="H10" s="1">
-        <v>1269.340000</v>
+        <v>1269.3399999999999</v>
       </c>
       <c r="I10" s="1">
-        <v>-266.080000</v>
+        <v>-266.08</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>22896.410070</v>
+        <v>22896.410070000002</v>
       </c>
       <c r="L10" s="1">
-        <v>6.360114</v>
+        <v>6.3601140000000003</v>
       </c>
       <c r="M10" s="1">
-        <v>1303.930000</v>
+        <v>1303.93</v>
       </c>
       <c r="N10" s="1">
-        <v>-202.894000</v>
+        <v>-202.89400000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>22906.679401</v>
+        <v>22906.679401000001</v>
       </c>
       <c r="Q10" s="1">
-        <v>6.362967</v>
+        <v>6.3629670000000003</v>
       </c>
       <c r="R10" s="1">
-        <v>1315.350000</v>
+        <v>1315.35</v>
       </c>
       <c r="S10" s="1">
-        <v>-184.491000</v>
+        <v>-184.49100000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>22917.178715</v>
+        <v>22917.178714999998</v>
       </c>
       <c r="V10" s="1">
-        <v>6.365883</v>
+        <v>6.3658830000000002</v>
       </c>
       <c r="W10" s="1">
-        <v>1328.110000</v>
+        <v>1328.11</v>
       </c>
       <c r="X10" s="1">
-        <v>-170.801000</v>
+        <v>-170.80099999999999</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>22927.678028</v>
+        <v>22927.678027999998</v>
       </c>
       <c r="AA10" s="1">
-        <v>6.368799</v>
+        <v>6.3687990000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>1345.320000</v>
+        <v>1345.32</v>
       </c>
       <c r="AC10" s="1">
-        <v>-168.652000</v>
+        <v>-168.65199999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>22938.191231</v>
+        <v>22938.191231000001</v>
       </c>
       <c r="AF10" s="1">
-        <v>6.371720</v>
+        <v>6.3717199999999998</v>
       </c>
       <c r="AG10" s="1">
-        <v>1357.950000</v>
+        <v>1357.95</v>
       </c>
       <c r="AH10" s="1">
-        <v>-178.253000</v>
+        <v>-178.25299999999999</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>22948.715842</v>
+        <v>22948.715842000001</v>
       </c>
       <c r="AK10" s="1">
-        <v>6.374643</v>
+        <v>6.3746429999999998</v>
       </c>
       <c r="AL10" s="1">
-        <v>1378.340000</v>
+        <v>1378.34</v>
       </c>
       <c r="AM10" s="1">
-        <v>-208.102000</v>
+        <v>-208.102</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>22959.505314</v>
+        <v>22959.505314000002</v>
       </c>
       <c r="AP10" s="1">
-        <v>6.377640</v>
+        <v>6.3776400000000004</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1399.830000</v>
+        <v>1399.83</v>
       </c>
       <c r="AR10" s="1">
-        <v>-251.993000</v>
+        <v>-251.99299999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>22970.470868</v>
       </c>
       <c r="AU10" s="1">
-        <v>6.380686</v>
+        <v>6.3806859999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>1424.230000</v>
+        <v>1424.23</v>
       </c>
       <c r="AW10" s="1">
-        <v>-312.097000</v>
+        <v>-312.09699999999998</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>22981.414101</v>
+        <v>22981.414100999998</v>
       </c>
       <c r="AZ10" s="1">
-        <v>6.383726</v>
+        <v>6.3837260000000002</v>
       </c>
       <c r="BA10" s="1">
-        <v>1443.510000</v>
+        <v>1443.51</v>
       </c>
       <c r="BB10" s="1">
-        <v>-364.300000</v>
+        <v>-364.3</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>22992.361800</v>
+        <v>22992.361799999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>6.386767</v>
+        <v>6.3867669999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1528.640000</v>
+        <v>1528.64</v>
       </c>
       <c r="BG10" s="1">
-        <v>-613.182000</v>
+        <v>-613.18200000000002</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>23003.138904</v>
+        <v>23003.138903999999</v>
       </c>
       <c r="BJ10" s="1">
         <v>6.389761</v>
       </c>
       <c r="BK10" s="1">
-        <v>1683.630000</v>
+        <v>1683.63</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1059.010000</v>
+        <v>-1059.01</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>23014.176377</v>
       </c>
       <c r="BO10" s="1">
-        <v>6.392827</v>
+        <v>6.3928269999999996</v>
       </c>
       <c r="BP10" s="1">
-        <v>1979.600000</v>
+        <v>1979.6</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1830.340000</v>
+        <v>-1830.34</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>23025.035756</v>
+        <v>23025.035756000001</v>
       </c>
       <c r="BT10" s="1">
-        <v>6.395843</v>
+        <v>6.3958430000000002</v>
       </c>
       <c r="BU10" s="1">
-        <v>2370.300000</v>
+        <v>2370.3000000000002</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2717.710000</v>
+        <v>-2717.71</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>23035.821794</v>
+        <v>23035.821793999999</v>
       </c>
       <c r="BY10" s="1">
-        <v>6.398839</v>
+        <v>6.3988389999999997</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2853.340000</v>
+        <v>2853.34</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3689.800000</v>
+        <v>-3689.8</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>23047.648893</v>
+        <v>23047.648893000001</v>
       </c>
       <c r="CD10" s="1">
-        <v>6.402125</v>
+        <v>6.4021249999999998</v>
       </c>
       <c r="CE10" s="1">
-        <v>4270.550000</v>
+        <v>4270.55</v>
       </c>
       <c r="CF10" s="1">
-        <v>-6016.120000</v>
+        <v>-6016.12</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>22876.536560</v>
+        <v>22876.53656</v>
       </c>
       <c r="B11" s="1">
-        <v>6.354593</v>
+        <v>6.3545930000000004</v>
       </c>
       <c r="C11" s="1">
-        <v>1243.760000</v>
+        <v>1243.76</v>
       </c>
       <c r="D11" s="1">
-        <v>-308.352000</v>
+        <v>-308.35199999999998</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>22886.681202</v>
       </c>
       <c r="G11" s="1">
-        <v>6.357411</v>
+        <v>6.3574109999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>1268.280000</v>
+        <v>1268.28</v>
       </c>
       <c r="I11" s="1">
-        <v>-265.774000</v>
+        <v>-265.774</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>22896.797110</v>
+        <v>22896.79711</v>
       </c>
       <c r="L11" s="1">
-        <v>6.360221</v>
+        <v>6.3602210000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>1303.460000</v>
+        <v>1303.46</v>
       </c>
       <c r="N11" s="1">
-        <v>-203.025000</v>
+        <v>-203.02500000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>22907.029575</v>
       </c>
       <c r="Q11" s="1">
-        <v>6.363064</v>
+        <v>6.3630639999999996</v>
       </c>
       <c r="R11" s="1">
-        <v>1315.390000</v>
+        <v>1315.39</v>
       </c>
       <c r="S11" s="1">
-        <v>-184.455000</v>
+        <v>-184.45500000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>22917.522441</v>
+        <v>22917.522441000001</v>
       </c>
       <c r="V11" s="1">
-        <v>6.365978</v>
+        <v>6.3659780000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>1328.210000</v>
+        <v>1328.21</v>
       </c>
       <c r="X11" s="1">
-        <v>-170.730000</v>
+        <v>-170.73</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>22928.024733</v>
+        <v>22928.024732999998</v>
       </c>
       <c r="AA11" s="1">
-        <v>6.368896</v>
+        <v>6.3688960000000003</v>
       </c>
       <c r="AB11" s="1">
-        <v>1345.280000</v>
+        <v>1345.28</v>
       </c>
       <c r="AC11" s="1">
-        <v>-168.579000</v>
+        <v>-168.57900000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>22938.540414</v>
+        <v>22938.540413999999</v>
       </c>
       <c r="AF11" s="1">
-        <v>6.371817</v>
+        <v>6.3718170000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>1357.960000</v>
+        <v>1357.96</v>
       </c>
       <c r="AH11" s="1">
-        <v>-178.191000</v>
+        <v>-178.191</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>22949.140453</v>
       </c>
       <c r="AK11" s="1">
-        <v>6.374761</v>
+        <v>6.3747610000000003</v>
       </c>
       <c r="AL11" s="1">
-        <v>1378.350000</v>
+        <v>1378.35</v>
       </c>
       <c r="AM11" s="1">
-        <v>-208.119000</v>
+        <v>-208.119</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>22959.801425</v>
+        <v>22959.801425000001</v>
       </c>
       <c r="AP11" s="1">
-        <v>6.377723</v>
+        <v>6.3777229999999996</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1399.830000</v>
+        <v>1399.83</v>
       </c>
       <c r="AR11" s="1">
-        <v>-251.993000</v>
+        <v>-251.99299999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>22970.780867</v>
+        <v>22970.780867000001</v>
       </c>
       <c r="AU11" s="1">
-        <v>6.380772</v>
+        <v>6.3807720000000003</v>
       </c>
       <c r="AV11" s="1">
-        <v>1424.210000</v>
+        <v>1424.21</v>
       </c>
       <c r="AW11" s="1">
-        <v>-312.058000</v>
+        <v>-312.05799999999999</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>22981.770724</v>
+        <v>22981.770724000002</v>
       </c>
       <c r="AZ11" s="1">
-        <v>6.383825</v>
+        <v>6.3838249999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1443.530000</v>
+        <v>1443.53</v>
       </c>
       <c r="BB11" s="1">
-        <v>-364.273000</v>
+        <v>-364.27300000000002</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>22992.722887</v>
       </c>
       <c r="BE11" s="1">
-        <v>6.386867</v>
+        <v>6.3868669999999996</v>
       </c>
       <c r="BF11" s="1">
-        <v>1528.680000</v>
+        <v>1528.68</v>
       </c>
       <c r="BG11" s="1">
-        <v>-613.198000</v>
+        <v>-613.19799999999998</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>23003.537656</v>
       </c>
       <c r="BJ11" s="1">
-        <v>6.389872</v>
+        <v>6.3898720000000004</v>
       </c>
       <c r="BK11" s="1">
-        <v>1683.700000</v>
+        <v>1683.7</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1059.020000</v>
+        <v>-1059.02</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>23014.991272</v>
+        <v>23014.991271999999</v>
       </c>
       <c r="BO11" s="1">
-        <v>6.393053</v>
+        <v>6.3930530000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1979.390000</v>
+        <v>1979.39</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1830.260000</v>
+        <v>-1830.26</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>23025.472731</v>
+        <v>23025.472731000002</v>
       </c>
       <c r="BT11" s="1">
-        <v>6.395965</v>
+        <v>6.3959650000000003</v>
       </c>
       <c r="BU11" s="1">
-        <v>2370.390000</v>
+        <v>2370.39</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2718.130000</v>
+        <v>-2718.13</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>23036.241372</v>
       </c>
       <c r="BY11" s="1">
-        <v>6.398956</v>
+        <v>6.3989560000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2852.790000</v>
+        <v>2852.79</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3690.110000</v>
+        <v>-3690.11</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>23048.186029</v>
       </c>
       <c r="CD11" s="1">
-        <v>6.402274</v>
+        <v>6.4022740000000002</v>
       </c>
       <c r="CE11" s="1">
-        <v>4268.710000</v>
+        <v>4268.71</v>
       </c>
       <c r="CF11" s="1">
-        <v>-6033.780000</v>
+        <v>-6033.78</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>22876.917983</v>
+        <v>22876.917982999999</v>
       </c>
       <c r="B12" s="1">
-        <v>6.354699</v>
+        <v>6.3546990000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>1243.260000</v>
+        <v>1243.26</v>
       </c>
       <c r="D12" s="1">
-        <v>-308.577000</v>
+        <v>-308.577</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>22886.976818</v>
+        <v>22886.976817999999</v>
       </c>
       <c r="G12" s="1">
         <v>6.357494</v>
       </c>
       <c r="H12" s="1">
-        <v>1268.670000</v>
+        <v>1268.67</v>
       </c>
       <c r="I12" s="1">
-        <v>-266.608000</v>
+        <v>-266.608</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>22897.143418</v>
       </c>
       <c r="L12" s="1">
-        <v>6.360318</v>
+        <v>6.3603180000000004</v>
       </c>
       <c r="M12" s="1">
-        <v>1303.650000</v>
+        <v>1303.6500000000001</v>
       </c>
       <c r="N12" s="1">
-        <v>-202.946000</v>
+        <v>-202.946</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>22907.375935</v>
       </c>
       <c r="Q12" s="1">
-        <v>6.363160</v>
+        <v>6.3631599999999997</v>
       </c>
       <c r="R12" s="1">
-        <v>1315.460000</v>
+        <v>1315.46</v>
       </c>
       <c r="S12" s="1">
-        <v>-184.512000</v>
+        <v>-184.512</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>22917.866665</v>
+        <v>22917.866665000001</v>
       </c>
       <c r="V12" s="1">
-        <v>6.366074</v>
+        <v>6.3660740000000002</v>
       </c>
       <c r="W12" s="1">
-        <v>1328.120000</v>
+        <v>1328.12</v>
       </c>
       <c r="X12" s="1">
-        <v>-170.830000</v>
+        <v>-170.83</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>22928.439883</v>
+        <v>22928.439882999999</v>
       </c>
       <c r="AA12" s="1">
-        <v>6.369011</v>
+        <v>6.3690110000000004</v>
       </c>
       <c r="AB12" s="1">
-        <v>1345.230000</v>
+        <v>1345.23</v>
       </c>
       <c r="AC12" s="1">
-        <v>-168.245000</v>
+        <v>-168.245</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>22939.008141</v>
+        <v>22939.008140999998</v>
       </c>
       <c r="AF12" s="1">
-        <v>6.371947</v>
+        <v>6.3719469999999996</v>
       </c>
       <c r="AG12" s="1">
-        <v>1357.980000</v>
+        <v>1357.98</v>
       </c>
       <c r="AH12" s="1">
-        <v>-178.157000</v>
+        <v>-178.15700000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>22949.426608</v>
+        <v>22949.426608000002</v>
       </c>
       <c r="AK12" s="1">
         <v>6.374841</v>
       </c>
       <c r="AL12" s="1">
-        <v>1378.330000</v>
+        <v>1378.33</v>
       </c>
       <c r="AM12" s="1">
-        <v>-208.075000</v>
+        <v>-208.07499999999999</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>22960.160034</v>
       </c>
       <c r="AP12" s="1">
-        <v>6.377822</v>
+        <v>6.3778220000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1399.790000</v>
+        <v>1399.79</v>
       </c>
       <c r="AR12" s="1">
-        <v>-251.973000</v>
+        <v>-251.97300000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>22971.145924</v>
       </c>
       <c r="AU12" s="1">
-        <v>6.380874</v>
+        <v>6.3808740000000004</v>
       </c>
       <c r="AV12" s="1">
-        <v>1424.200000</v>
+        <v>1424.2</v>
       </c>
       <c r="AW12" s="1">
-        <v>-312.108000</v>
+        <v>-312.108</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>22982.132308</v>
       </c>
       <c r="AZ12" s="1">
-        <v>6.383926</v>
+        <v>6.3839259999999998</v>
       </c>
       <c r="BA12" s="1">
-        <v>1443.500000</v>
+        <v>1443.5</v>
       </c>
       <c r="BB12" s="1">
-        <v>-364.282000</v>
+        <v>-364.28199999999998</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>22993.443078</v>
       </c>
       <c r="BE12" s="1">
-        <v>6.387068</v>
+        <v>6.3870680000000002</v>
       </c>
       <c r="BF12" s="1">
-        <v>1528.640000</v>
+        <v>1528.64</v>
       </c>
       <c r="BG12" s="1">
-        <v>-613.180000</v>
+        <v>-613.17999999999995</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>23004.287143</v>
+        <v>23004.287143000001</v>
       </c>
       <c r="BJ12" s="1">
-        <v>6.390080</v>
+        <v>6.3900800000000002</v>
       </c>
       <c r="BK12" s="1">
-        <v>1683.620000</v>
+        <v>1683.62</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1059.020000</v>
+        <v>-1059.02</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>23015.410392</v>
+        <v>23015.410392000002</v>
       </c>
       <c r="BO12" s="1">
-        <v>6.393170</v>
+        <v>6.3931699999999996</v>
       </c>
       <c r="BP12" s="1">
-        <v>1979.550000</v>
+        <v>1979.55</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1830.180000</v>
+        <v>-1830.18</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>23025.899290</v>
+        <v>23025.899290000001</v>
       </c>
       <c r="BT12" s="1">
         <v>6.396083</v>
       </c>
       <c r="BU12" s="1">
-        <v>2370.560000</v>
+        <v>2370.56</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2718.690000</v>
+        <v>-2718.69</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>23036.695708</v>
+        <v>23036.695707999999</v>
       </c>
       <c r="BY12" s="1">
-        <v>6.399082</v>
+        <v>6.3990819999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2852.530000</v>
+        <v>2852.53</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3689.530000</v>
+        <v>-3689.53</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>23049.039179</v>
+        <v>23049.039178999999</v>
       </c>
       <c r="CD12" s="1">
-        <v>6.402511</v>
+        <v>6.4025109999999996</v>
       </c>
       <c r="CE12" s="1">
-        <v>4269.150000</v>
+        <v>4269.1499999999996</v>
       </c>
       <c r="CF12" s="1">
-        <v>-6016.880000</v>
+        <v>-6016.88</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>22877.262703</v>
       </c>
       <c r="B13" s="1">
-        <v>6.354795</v>
+        <v>6.3547950000000002</v>
       </c>
       <c r="C13" s="1">
-        <v>1243.460000</v>
+        <v>1243.46</v>
       </c>
       <c r="D13" s="1">
-        <v>-308.697000</v>
+        <v>-308.697</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>22887.320545</v>
+        <v>22887.320544999999</v>
       </c>
       <c r="G13" s="1">
-        <v>6.357589</v>
+        <v>6.3575889999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>1268.020000</v>
+        <v>1268.02</v>
       </c>
       <c r="I13" s="1">
-        <v>-266.222000</v>
+        <v>-266.22199999999998</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>22897.488532</v>
+        <v>22897.488531999999</v>
       </c>
       <c r="L13" s="1">
-        <v>6.360413</v>
+        <v>6.3604130000000003</v>
       </c>
       <c r="M13" s="1">
-        <v>1303.970000</v>
+        <v>1303.97</v>
       </c>
       <c r="N13" s="1">
-        <v>-202.739000</v>
+        <v>-202.739</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>22907.790438</v>
       </c>
       <c r="Q13" s="1">
-        <v>6.363275</v>
+        <v>6.3632749999999998</v>
       </c>
       <c r="R13" s="1">
-        <v>1315.430000</v>
+        <v>1315.43</v>
       </c>
       <c r="S13" s="1">
-        <v>-184.568000</v>
+        <v>-184.56800000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>22918.286312</v>
       </c>
       <c r="V13" s="1">
-        <v>6.366191</v>
+        <v>6.3661909999999997</v>
       </c>
       <c r="W13" s="1">
-        <v>1328.140000</v>
+        <v>1328.14</v>
       </c>
       <c r="X13" s="1">
-        <v>-170.855000</v>
+        <v>-170.85499999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>22928.724091</v>
       </c>
       <c r="AA13" s="1">
-        <v>6.369090</v>
+        <v>6.3690899999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>1345.120000</v>
+        <v>1345.12</v>
       </c>
       <c r="AC13" s="1">
-        <v>-168.531000</v>
+        <v>-168.53100000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>22939.285902</v>
       </c>
       <c r="AF13" s="1">
-        <v>6.372024</v>
+        <v>6.3720239999999997</v>
       </c>
       <c r="AG13" s="1">
-        <v>1358.000000</v>
+        <v>1358</v>
       </c>
       <c r="AH13" s="1">
-        <v>-178.171000</v>
+        <v>-178.17099999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>22949.774303</v>
+        <v>22949.774302999998</v>
       </c>
       <c r="AK13" s="1">
-        <v>6.374937</v>
+        <v>6.3749370000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>1378.340000</v>
+        <v>1378.34</v>
       </c>
       <c r="AM13" s="1">
-        <v>-208.040000</v>
+        <v>-208.04</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>22960.522642</v>
@@ -3428,1328 +3844,1328 @@
         <v>6.377923</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1399.800000</v>
+        <v>1399.8</v>
       </c>
       <c r="AR13" s="1">
-        <v>-252.007000</v>
+        <v>-252.00700000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>22971.508498</v>
+        <v>22971.508497999999</v>
       </c>
       <c r="AU13" s="1">
-        <v>6.380975</v>
+        <v>6.3809750000000003</v>
       </c>
       <c r="AV13" s="1">
-        <v>1424.230000</v>
+        <v>1424.23</v>
       </c>
       <c r="AW13" s="1">
-        <v>-312.058000</v>
+        <v>-312.05799999999999</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>22982.849523</v>
+        <v>22982.849523000001</v>
       </c>
       <c r="AZ13" s="1">
         <v>6.384125</v>
       </c>
       <c r="BA13" s="1">
-        <v>1443.460000</v>
+        <v>1443.46</v>
       </c>
       <c r="BB13" s="1">
-        <v>-364.264000</v>
+        <v>-364.26400000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>22993.805653</v>
+        <v>22993.805652999999</v>
       </c>
       <c r="BE13" s="1">
         <v>6.387168</v>
       </c>
       <c r="BF13" s="1">
-        <v>1528.680000</v>
+        <v>1528.68</v>
       </c>
       <c r="BG13" s="1">
-        <v>-613.216000</v>
+        <v>-613.21600000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>23004.692870</v>
+        <v>23004.692869999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>6.390192</v>
+        <v>6.3901919999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1683.650000</v>
+        <v>1683.65</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1059.020000</v>
+        <v>-1059.02</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>23015.806200</v>
+        <v>23015.806199999999</v>
       </c>
       <c r="BO13" s="1">
-        <v>6.393279</v>
+        <v>6.3932789999999997</v>
       </c>
       <c r="BP13" s="1">
-        <v>1979.560000</v>
+        <v>1979.56</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1830.220000</v>
+        <v>-1830.22</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>23026.618985</v>
+        <v>23026.618985000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>6.396283</v>
+        <v>6.3962830000000004</v>
       </c>
       <c r="BU13" s="1">
-        <v>2370.810000</v>
+        <v>2370.81</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2719.260000</v>
+        <v>-2719.26</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>23037.445660</v>
+        <v>23037.445660000001</v>
       </c>
       <c r="BY13" s="1">
-        <v>6.399290</v>
+        <v>6.3992899999999997</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2852.480000</v>
+        <v>2852.48</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3689.400000</v>
+        <v>-3689.4</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>23049.268300</v>
+        <v>23049.2683</v>
       </c>
       <c r="CD13" s="1">
-        <v>6.402575</v>
+        <v>6.4025749999999997</v>
       </c>
       <c r="CE13" s="1">
-        <v>4271.580000</v>
+        <v>4271.58</v>
       </c>
       <c r="CF13" s="1">
-        <v>-6014.900000</v>
+        <v>-6014.9</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>22877.600942</v>
+        <v>22877.600942000001</v>
       </c>
       <c r="B14" s="1">
         <v>6.354889</v>
       </c>
       <c r="C14" s="1">
-        <v>1243.510000</v>
+        <v>1243.51</v>
       </c>
       <c r="D14" s="1">
-        <v>-308.720000</v>
+        <v>-308.72000000000003</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>22887.736193</v>
+        <v>22887.736193000001</v>
       </c>
       <c r="G14" s="1">
         <v>6.357704</v>
       </c>
       <c r="H14" s="1">
-        <v>1269.100000</v>
+        <v>1269.0999999999999</v>
       </c>
       <c r="I14" s="1">
-        <v>-264.422000</v>
+        <v>-264.42200000000003</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>22897.919556</v>
+        <v>22897.919556000001</v>
       </c>
       <c r="L14" s="1">
-        <v>6.360533</v>
+        <v>6.3605330000000002</v>
       </c>
       <c r="M14" s="1">
-        <v>1303.790000</v>
+        <v>1303.79</v>
       </c>
       <c r="N14" s="1">
-        <v>-202.692000</v>
+        <v>-202.69200000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>22908.072166</v>
+        <v>22908.072166000002</v>
       </c>
       <c r="Q14" s="1">
         <v>6.363353</v>
       </c>
       <c r="R14" s="1">
-        <v>1315.440000</v>
+        <v>1315.44</v>
       </c>
       <c r="S14" s="1">
-        <v>-184.583000</v>
+        <v>-184.583</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>22918.580410</v>
+        <v>22918.580409999999</v>
       </c>
       <c r="V14" s="1">
-        <v>6.366272</v>
+        <v>6.3662720000000004</v>
       </c>
       <c r="W14" s="1">
-        <v>1328.200000</v>
+        <v>1328.2</v>
       </c>
       <c r="X14" s="1">
-        <v>-170.761000</v>
+        <v>-170.761</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>22929.072282</v>
+        <v>22929.072282000001</v>
       </c>
       <c r="AA14" s="1">
-        <v>6.369187</v>
+        <v>6.3691870000000002</v>
       </c>
       <c r="AB14" s="1">
-        <v>1345.170000</v>
+        <v>1345.17</v>
       </c>
       <c r="AC14" s="1">
-        <v>-168.664000</v>
+        <v>-168.66399999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>22939.617229</v>
+        <v>22939.617228999999</v>
       </c>
       <c r="AF14" s="1">
-        <v>6.372116</v>
+        <v>6.3721160000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>1357.870000</v>
+        <v>1357.87</v>
       </c>
       <c r="AH14" s="1">
-        <v>-178.161000</v>
+        <v>-178.161</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>22950.117039</v>
+        <v>22950.117039000001</v>
       </c>
       <c r="AK14" s="1">
-        <v>6.375033</v>
+        <v>6.3750330000000002</v>
       </c>
       <c r="AL14" s="1">
-        <v>1378.350000</v>
+        <v>1378.35</v>
       </c>
       <c r="AM14" s="1">
-        <v>-208.083000</v>
+        <v>-208.083</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>22961.249744</v>
+        <v>22961.249744000001</v>
       </c>
       <c r="AP14" s="1">
-        <v>6.378125</v>
+        <v>6.3781249999999998</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1399.810000</v>
+        <v>1399.81</v>
       </c>
       <c r="AR14" s="1">
-        <v>-252.001000</v>
+        <v>-252.001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>22972.243569</v>
+        <v>22972.243568999998</v>
       </c>
       <c r="AU14" s="1">
-        <v>6.381179</v>
+        <v>6.3811790000000004</v>
       </c>
       <c r="AV14" s="1">
-        <v>1424.250000</v>
+        <v>1424.25</v>
       </c>
       <c r="AW14" s="1">
-        <v>-312.087000</v>
+        <v>-312.08699999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>22983.206179</v>
+        <v>22983.206179000001</v>
       </c>
       <c r="AZ14" s="1">
-        <v>6.384224</v>
+        <v>6.3842239999999997</v>
       </c>
       <c r="BA14" s="1">
-        <v>1443.450000</v>
+        <v>1443.45</v>
       </c>
       <c r="BB14" s="1">
-        <v>-364.296000</v>
+        <v>-364.29599999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>22994.165252</v>
+        <v>22994.165251999999</v>
       </c>
       <c r="BE14" s="1">
-        <v>6.387268</v>
+        <v>6.3872679999999997</v>
       </c>
       <c r="BF14" s="1">
-        <v>1528.690000</v>
+        <v>1528.69</v>
       </c>
       <c r="BG14" s="1">
-        <v>-613.208000</v>
+        <v>-613.20799999999997</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>23005.067059</v>
+        <v>23005.067059000001</v>
       </c>
       <c r="BJ14" s="1">
-        <v>6.390296</v>
+        <v>6.3902960000000002</v>
       </c>
       <c r="BK14" s="1">
-        <v>1683.650000</v>
+        <v>1683.65</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1059.040000</v>
+        <v>-1059.04</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>23016.538294</v>
+        <v>23016.538294000002</v>
       </c>
       <c r="BO14" s="1">
-        <v>6.393483</v>
+        <v>6.3934829999999998</v>
       </c>
       <c r="BP14" s="1">
-        <v>1979.590000</v>
+        <v>1979.59</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1829.990000</v>
+        <v>-1829.99</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>23026.743484</v>
+        <v>23026.743483999999</v>
       </c>
       <c r="BT14" s="1">
-        <v>6.396318</v>
+        <v>6.3963179999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>2371.230000</v>
+        <v>2371.23</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2719.960000</v>
+        <v>-2719.96</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>23037.593468</v>
+        <v>23037.593467999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>6.399332</v>
+        <v>6.3993320000000002</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2853.390000</v>
+        <v>2853.39</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3690.200000</v>
+        <v>-3690.2</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>23049.783644</v>
+        <v>23049.783643999999</v>
       </c>
       <c r="CD14" s="1">
-        <v>6.402718</v>
+        <v>6.4027180000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>4264.240000</v>
+        <v>4264.24</v>
       </c>
       <c r="CF14" s="1">
-        <v>-6029.670000</v>
+        <v>-6029.67</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>22878.014606</v>
+        <v>22878.014606000001</v>
       </c>
       <c r="B15" s="1">
-        <v>6.355004</v>
+        <v>6.3550040000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>1243.490000</v>
+        <v>1243.49</v>
       </c>
       <c r="D15" s="1">
-        <v>-308.548000</v>
+        <v>-308.548</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>22888.017457</v>
+        <v>22888.017457000002</v>
       </c>
       <c r="G15" s="1">
-        <v>6.357783</v>
+        <v>6.3577830000000004</v>
       </c>
       <c r="H15" s="1">
-        <v>1268.680000</v>
+        <v>1268.68</v>
       </c>
       <c r="I15" s="1">
-        <v>-265.242000</v>
+        <v>-265.24200000000002</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>22898.195827</v>
       </c>
       <c r="L15" s="1">
-        <v>6.360610</v>
+        <v>6.3606100000000003</v>
       </c>
       <c r="M15" s="1">
-        <v>1303.710000</v>
+        <v>1303.71</v>
       </c>
       <c r="N15" s="1">
-        <v>-203.209000</v>
+        <v>-203.209</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>22908.422838</v>
+        <v>22908.422837999999</v>
       </c>
       <c r="Q15" s="1">
-        <v>6.363451</v>
+        <v>6.3634510000000004</v>
       </c>
       <c r="R15" s="1">
-        <v>1315.350000</v>
+        <v>1315.35</v>
       </c>
       <c r="S15" s="1">
-        <v>-184.553000</v>
+        <v>-184.553</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>22918.922680</v>
+        <v>22918.92268</v>
       </c>
       <c r="V15" s="1">
-        <v>6.366367</v>
+        <v>6.3663670000000003</v>
       </c>
       <c r="W15" s="1">
-        <v>1328.220000</v>
+        <v>1328.22</v>
       </c>
       <c r="X15" s="1">
-        <v>-170.731000</v>
+        <v>-170.73099999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>22929.422956</v>
+        <v>22929.422955999999</v>
       </c>
       <c r="AA15" s="1">
-        <v>6.369284</v>
+        <v>6.3692840000000004</v>
       </c>
       <c r="AB15" s="1">
-        <v>1345.220000</v>
+        <v>1345.22</v>
       </c>
       <c r="AC15" s="1">
-        <v>-168.471000</v>
+        <v>-168.471</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>22940.304188</v>
+        <v>22940.304187999998</v>
       </c>
       <c r="AF15" s="1">
-        <v>6.372307</v>
+        <v>6.3723070000000002</v>
       </c>
       <c r="AG15" s="1">
-        <v>1358.030000</v>
+        <v>1358.03</v>
       </c>
       <c r="AH15" s="1">
-        <v>-178.202000</v>
+        <v>-178.202</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>22950.820861</v>
       </c>
       <c r="AK15" s="1">
-        <v>6.375228</v>
+        <v>6.3752279999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>1378.320000</v>
+        <v>1378.32</v>
       </c>
       <c r="AM15" s="1">
-        <v>-208.062000</v>
+        <v>-208.06200000000001</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>22961.626208</v>
+        <v>22961.626208000001</v>
       </c>
       <c r="AP15" s="1">
-        <v>6.378230</v>
+        <v>6.3782300000000003</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1399.820000</v>
+        <v>1399.82</v>
       </c>
       <c r="AR15" s="1">
-        <v>-252.007000</v>
+        <v>-252.00700000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>22972.627473</v>
       </c>
       <c r="AU15" s="1">
-        <v>6.381285</v>
+        <v>6.3812850000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>1424.240000</v>
+        <v>1424.24</v>
       </c>
       <c r="AW15" s="1">
-        <v>-312.072000</v>
+        <v>-312.072</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>22983.564786</v>
+        <v>22983.564785999999</v>
       </c>
       <c r="AZ15" s="1">
-        <v>6.384324</v>
+        <v>6.3843240000000003</v>
       </c>
       <c r="BA15" s="1">
-        <v>1443.470000</v>
+        <v>1443.47</v>
       </c>
       <c r="BB15" s="1">
-        <v>-364.324000</v>
+        <v>-364.32400000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>22994.835349</v>
+        <v>22994.835349000001</v>
       </c>
       <c r="BE15" s="1">
         <v>6.387454</v>
       </c>
       <c r="BF15" s="1">
-        <v>1528.680000</v>
+        <v>1528.68</v>
       </c>
       <c r="BG15" s="1">
-        <v>-613.143000</v>
+        <v>-613.14300000000003</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>23005.748852</v>
+        <v>23005.748852000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>6.390486</v>
+        <v>6.3904860000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1683.620000</v>
+        <v>1683.62</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1059.010000</v>
+        <v>-1059.01</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>23016.646423</v>
+        <v>23016.646422999998</v>
       </c>
       <c r="BO15" s="1">
-        <v>6.393513</v>
+        <v>6.3935129999999996</v>
       </c>
       <c r="BP15" s="1">
-        <v>1979.500000</v>
+        <v>1979.5</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1830.170000</v>
+        <v>-1830.17</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>23027.183962</v>
+        <v>23027.183961999999</v>
       </c>
       <c r="BT15" s="1">
-        <v>6.396440</v>
+        <v>6.3964400000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>2370.730000</v>
+        <v>2370.73</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2720.420000</v>
+        <v>-2720.42</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
         <v>23038.018044</v>
       </c>
       <c r="BY15" s="1">
-        <v>6.399449</v>
+        <v>6.3994489999999997</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2853.260000</v>
+        <v>2853.26</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3689.680000</v>
+        <v>-3689.68</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>23050.303978</v>
       </c>
       <c r="CD15" s="1">
-        <v>6.402862</v>
+        <v>6.4028619999999998</v>
       </c>
       <c r="CE15" s="1">
-        <v>4285.190000</v>
+        <v>4285.1899999999996</v>
       </c>
       <c r="CF15" s="1">
-        <v>-6024.420000</v>
+        <v>-6024.42</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>22878.300797</v>
       </c>
       <c r="B16" s="1">
-        <v>6.355084</v>
+        <v>6.3550839999999997</v>
       </c>
       <c r="C16" s="1">
-        <v>1243.930000</v>
+        <v>1243.93</v>
       </c>
       <c r="D16" s="1">
-        <v>-308.818000</v>
+        <v>-308.81799999999998</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>22888.363669</v>
+        <v>22888.363668999998</v>
       </c>
       <c r="G16" s="1">
-        <v>6.357879</v>
+        <v>6.3578789999999996</v>
       </c>
       <c r="H16" s="1">
-        <v>1268.730000</v>
+        <v>1268.73</v>
       </c>
       <c r="I16" s="1">
-        <v>-266.189000</v>
+        <v>-266.18900000000002</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>22898.546003</v>
+        <v>22898.546002999999</v>
       </c>
       <c r="L16" s="1">
-        <v>6.360707</v>
+        <v>6.3607069999999997</v>
       </c>
       <c r="M16" s="1">
-        <v>1303.440000</v>
+        <v>1303.44</v>
       </c>
       <c r="N16" s="1">
-        <v>-202.757000</v>
+        <v>-202.75700000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>22908.773509</v>
+        <v>22908.773508999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>6.363548</v>
+        <v>6.3635479999999998</v>
       </c>
       <c r="R16" s="1">
-        <v>1315.350000</v>
+        <v>1315.35</v>
       </c>
       <c r="S16" s="1">
-        <v>-184.438000</v>
+        <v>-184.43799999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>22919.266871</v>
       </c>
       <c r="V16" s="1">
-        <v>6.366463</v>
+        <v>6.3664630000000004</v>
       </c>
       <c r="W16" s="1">
-        <v>1328.280000</v>
+        <v>1328.28</v>
       </c>
       <c r="X16" s="1">
-        <v>-170.870000</v>
+        <v>-170.87</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>22930.121817</v>
+        <v>22930.121816999999</v>
       </c>
       <c r="AA16" s="1">
         <v>6.369478</v>
       </c>
       <c r="AB16" s="1">
-        <v>1345.180000</v>
+        <v>1345.18</v>
       </c>
       <c r="AC16" s="1">
-        <v>-168.539000</v>
+        <v>-168.53899999999999</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>22940.654364</v>
+        <v>22940.654364000002</v>
       </c>
       <c r="AF16" s="1">
-        <v>6.372404</v>
+        <v>6.3724040000000004</v>
       </c>
       <c r="AG16" s="1">
-        <v>1357.930000</v>
+        <v>1357.93</v>
       </c>
       <c r="AH16" s="1">
-        <v>-178.120000</v>
+        <v>-178.12</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>22951.172525</v>
+        <v>22951.172525000002</v>
       </c>
       <c r="AK16" s="1">
-        <v>6.375326</v>
+        <v>6.3753260000000003</v>
       </c>
       <c r="AL16" s="1">
-        <v>1378.360000</v>
+        <v>1378.36</v>
       </c>
       <c r="AM16" s="1">
-        <v>-208.074000</v>
+        <v>-208.07400000000001</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>22961.985807</v>
+        <v>22961.985807000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>6.378329</v>
+        <v>6.3783289999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1399.830000</v>
+        <v>1399.83</v>
       </c>
       <c r="AR16" s="1">
-        <v>-251.991000</v>
+        <v>-251.99100000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>22972.992065</v>
+        <v>22972.992064999999</v>
       </c>
       <c r="AU16" s="1">
-        <v>6.381387</v>
+        <v>6.3813870000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>1424.210000</v>
+        <v>1424.21</v>
       </c>
       <c r="AW16" s="1">
-        <v>-312.054000</v>
+        <v>-312.05399999999997</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>22984.227441</v>
+        <v>22984.227440999999</v>
       </c>
       <c r="AZ16" s="1">
-        <v>6.384508</v>
+        <v>6.3845080000000003</v>
       </c>
       <c r="BA16" s="1">
-        <v>1443.480000</v>
+        <v>1443.48</v>
       </c>
       <c r="BB16" s="1">
-        <v>-364.287000</v>
+        <v>-364.28699999999998</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>22995.277314</v>
+        <v>22995.277313999999</v>
       </c>
       <c r="BE16" s="1">
-        <v>6.387577</v>
+        <v>6.3875770000000003</v>
       </c>
       <c r="BF16" s="1">
-        <v>1528.670000</v>
+        <v>1528.67</v>
       </c>
       <c r="BG16" s="1">
-        <v>-613.175000</v>
+        <v>-613.17499999999995</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>23005.856484</v>
       </c>
       <c r="BJ16" s="1">
-        <v>6.390516</v>
+        <v>6.3905159999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1683.650000</v>
+        <v>1683.65</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1059.000000</v>
+        <v>-1059</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>23017.047223</v>
+        <v>23017.047223000001</v>
       </c>
       <c r="BO16" s="1">
         <v>6.393624</v>
       </c>
       <c r="BP16" s="1">
-        <v>1979.350000</v>
+        <v>1979.35</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1830.150000</v>
+        <v>-1830.15</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>23027.609992</v>
+        <v>23027.609992000002</v>
       </c>
       <c r="BT16" s="1">
-        <v>6.396558</v>
+        <v>6.3965579999999997</v>
       </c>
       <c r="BU16" s="1">
-        <v>2370.290000</v>
+        <v>2370.29</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2721.030000</v>
+        <v>-2721.03</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>23038.440637</v>
       </c>
       <c r="BY16" s="1">
-        <v>6.399567</v>
+        <v>6.3995670000000002</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2853.350000</v>
+        <v>2853.35</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3690.350000</v>
+        <v>-3690.35</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>23050.843593</v>
+        <v>23050.843593000001</v>
       </c>
       <c r="CD16" s="1">
-        <v>6.403012</v>
+        <v>6.4030120000000004</v>
       </c>
       <c r="CE16" s="1">
-        <v>4263.680000</v>
+        <v>4263.68</v>
       </c>
       <c r="CF16" s="1">
-        <v>-6019.760000</v>
+        <v>-6019.76</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>22878.643566</v>
+        <v>22878.643565999999</v>
       </c>
       <c r="B17" s="1">
-        <v>6.355179</v>
+        <v>6.3551789999999997</v>
       </c>
       <c r="C17" s="1">
-        <v>1243.000000</v>
+        <v>1243</v>
       </c>
       <c r="D17" s="1">
-        <v>-308.645000</v>
+        <v>-308.64499999999998</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>22888.705872</v>
+        <v>22888.705871999999</v>
       </c>
       <c r="G17" s="1">
-        <v>6.357974</v>
+        <v>6.3579739999999996</v>
       </c>
       <c r="H17" s="1">
-        <v>1268.740000</v>
+        <v>1268.74</v>
       </c>
       <c r="I17" s="1">
-        <v>-266.332000</v>
+        <v>-266.33199999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>22898.889266</v>
+        <v>22898.889265999998</v>
       </c>
       <c r="L17" s="1">
-        <v>6.360803</v>
+        <v>6.3608029999999998</v>
       </c>
       <c r="M17" s="1">
-        <v>1303.590000</v>
+        <v>1303.5899999999999</v>
       </c>
       <c r="N17" s="1">
-        <v>-202.866000</v>
+        <v>-202.86600000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>22909.457989</v>
+        <v>22909.457988999999</v>
       </c>
       <c r="Q17" s="1">
-        <v>6.363738</v>
+        <v>6.3637379999999997</v>
       </c>
       <c r="R17" s="1">
-        <v>1315.450000</v>
+        <v>1315.45</v>
       </c>
       <c r="S17" s="1">
-        <v>-184.430000</v>
+        <v>-184.43</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>22919.955814</v>
+        <v>22919.955814000001</v>
       </c>
       <c r="V17" s="1">
-        <v>6.366654</v>
+        <v>6.3666539999999996</v>
       </c>
       <c r="W17" s="1">
-        <v>1328.280000</v>
+        <v>1328.28</v>
       </c>
       <c r="X17" s="1">
-        <v>-170.854000</v>
+        <v>-170.85400000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>22930.465545</v>
+        <v>22930.465544999999</v>
       </c>
       <c r="AA17" s="1">
-        <v>6.369574</v>
+        <v>6.3695740000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>1344.890000</v>
+        <v>1344.89</v>
       </c>
       <c r="AC17" s="1">
-        <v>-168.438000</v>
+        <v>-168.43799999999999</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>22940.993626</v>
+        <v>22940.993625999999</v>
       </c>
       <c r="AF17" s="1">
-        <v>6.372498</v>
+        <v>6.3724980000000002</v>
       </c>
       <c r="AG17" s="1">
-        <v>1357.980000</v>
+        <v>1357.98</v>
       </c>
       <c r="AH17" s="1">
-        <v>-178.176000</v>
+        <v>-178.17599999999999</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>22951.519757</v>
+        <v>22951.519756999998</v>
       </c>
       <c r="AK17" s="1">
-        <v>6.375422</v>
+        <v>6.3754220000000004</v>
       </c>
       <c r="AL17" s="1">
-        <v>1378.360000</v>
+        <v>1378.36</v>
       </c>
       <c r="AM17" s="1">
-        <v>-208.086000</v>
+        <v>-208.08600000000001</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>22962.648959</v>
+        <v>22962.648958999998</v>
       </c>
       <c r="AP17" s="1">
         <v>6.378514</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1399.830000</v>
+        <v>1399.83</v>
       </c>
       <c r="AR17" s="1">
-        <v>-251.959000</v>
+        <v>-251.959</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>22973.690897</v>
       </c>
       <c r="AU17" s="1">
-        <v>6.381581</v>
+        <v>6.3815809999999997</v>
       </c>
       <c r="AV17" s="1">
-        <v>1424.240000</v>
+        <v>1424.24</v>
       </c>
       <c r="AW17" s="1">
-        <v>-312.088000</v>
+        <v>-312.08800000000002</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>22984.643089</v>
+        <v>22984.643089000001</v>
       </c>
       <c r="AZ17" s="1">
-        <v>6.384623</v>
+        <v>6.3846230000000004</v>
       </c>
       <c r="BA17" s="1">
-        <v>1443.490000</v>
+        <v>1443.49</v>
       </c>
       <c r="BB17" s="1">
-        <v>-364.299000</v>
+        <v>-364.29899999999998</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>22995.638407</v>
+        <v>22995.638406999999</v>
       </c>
       <c r="BE17" s="1">
         <v>6.387677</v>
       </c>
       <c r="BF17" s="1">
-        <v>1528.670000</v>
+        <v>1528.67</v>
       </c>
       <c r="BG17" s="1">
-        <v>-613.097000</v>
+        <v>-613.09699999999998</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>23006.216887</v>
+        <v>23006.216886999999</v>
       </c>
       <c r="BJ17" s="1">
-        <v>6.390616</v>
+        <v>6.3906159999999996</v>
       </c>
       <c r="BK17" s="1">
-        <v>1683.660000</v>
+        <v>1683.66</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1058.980000</v>
+        <v>-1058.98</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>23017.444485</v>
       </c>
       <c r="BO17" s="1">
-        <v>6.393735</v>
+        <v>6.3937350000000004</v>
       </c>
       <c r="BP17" s="1">
-        <v>1979.430000</v>
+        <v>1979.43</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1830.160000</v>
+        <v>-1830.16</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>23028.021671</v>
+        <v>23028.021670999999</v>
       </c>
       <c r="BT17" s="1">
-        <v>6.396673</v>
+        <v>6.3966729999999998</v>
       </c>
       <c r="BU17" s="1">
-        <v>2369.890000</v>
+        <v>2369.89</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2721.310000</v>
+        <v>-2721.31</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>23038.889513</v>
+        <v>23038.889512999998</v>
       </c>
       <c r="BY17" s="1">
-        <v>6.399692</v>
+        <v>6.3996919999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2852.830000</v>
+        <v>2852.83</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3689.280000</v>
+        <v>-3689.28</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>23051.382744</v>
+        <v>23051.382743999999</v>
       </c>
       <c r="CD17" s="1">
         <v>6.403162</v>
       </c>
       <c r="CE17" s="1">
-        <v>4277.640000</v>
+        <v>4277.6400000000003</v>
       </c>
       <c r="CF17" s="1">
-        <v>-6035.690000</v>
+        <v>-6035.69</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>22878.985276</v>
+        <v>22878.985275999999</v>
       </c>
       <c r="B18" s="1">
-        <v>6.355274</v>
+        <v>6.3552739999999996</v>
       </c>
       <c r="C18" s="1">
-        <v>1243.560000</v>
+        <v>1243.56</v>
       </c>
       <c r="D18" s="1">
-        <v>-308.518000</v>
+        <v>-308.51799999999997</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>22889.395343</v>
       </c>
       <c r="G18" s="1">
-        <v>6.358165</v>
+        <v>6.3581649999999996</v>
       </c>
       <c r="H18" s="1">
-        <v>1268.410000</v>
+        <v>1268.4100000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-266.215000</v>
+        <v>-266.21499999999997</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>22899.582641</v>
+        <v>22899.582641000001</v>
       </c>
       <c r="L18" s="1">
         <v>6.360995</v>
       </c>
       <c r="M18" s="1">
-        <v>1303.980000</v>
+        <v>1303.98</v>
       </c>
       <c r="N18" s="1">
-        <v>-203.194000</v>
+        <v>-203.19399999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>22909.816596</v>
+        <v>22909.816596000001</v>
       </c>
       <c r="Q18" s="1">
-        <v>6.363838</v>
+        <v>6.3638380000000003</v>
       </c>
       <c r="R18" s="1">
-        <v>1315.470000</v>
+        <v>1315.47</v>
       </c>
       <c r="S18" s="1">
-        <v>-184.447000</v>
+        <v>-184.447</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>22920.299046</v>
       </c>
       <c r="V18" s="1">
-        <v>6.366750</v>
+        <v>6.3667499999999997</v>
       </c>
       <c r="W18" s="1">
-        <v>1328.180000</v>
+        <v>1328.18</v>
       </c>
       <c r="X18" s="1">
-        <v>-170.728000</v>
+        <v>-170.72800000000001</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>22930.814761</v>
+        <v>22930.814761000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>6.369671</v>
+        <v>6.3696710000000003</v>
       </c>
       <c r="AB18" s="1">
-        <v>1345.480000</v>
+        <v>1345.48</v>
       </c>
       <c r="AC18" s="1">
-        <v>-168.383000</v>
+        <v>-168.38300000000001</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>22941.648347</v>
+        <v>22941.648346999998</v>
       </c>
       <c r="AF18" s="1">
-        <v>6.372680</v>
+        <v>6.3726799999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>1357.940000</v>
+        <v>1357.94</v>
       </c>
       <c r="AH18" s="1">
-        <v>-178.221000</v>
+        <v>-178.221</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>22952.176956</v>
+        <v>22952.176955999999</v>
       </c>
       <c r="AK18" s="1">
-        <v>6.375605</v>
+        <v>6.3756050000000002</v>
       </c>
       <c r="AL18" s="1">
-        <v>1378.350000</v>
+        <v>1378.35</v>
       </c>
       <c r="AM18" s="1">
-        <v>-208.073000</v>
+        <v>-208.07300000000001</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>22963.065629</v>
+        <v>22963.065629000001</v>
       </c>
       <c r="AP18" s="1">
-        <v>6.378629</v>
+        <v>6.3786290000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1399.820000</v>
+        <v>1399.82</v>
       </c>
       <c r="AR18" s="1">
-        <v>-252.001000</v>
+        <v>-252.001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>22974.110511</v>
+        <v>22974.110510999999</v>
       </c>
       <c r="AU18" s="1">
         <v>6.381697</v>
       </c>
       <c r="AV18" s="1">
-        <v>1424.210000</v>
+        <v>1424.21</v>
       </c>
       <c r="AW18" s="1">
-        <v>-312.069000</v>
+        <v>-312.06900000000002</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>22985.029936</v>
+        <v>22985.029935999999</v>
       </c>
       <c r="AZ18" s="1">
-        <v>6.384731</v>
+        <v>6.3847310000000004</v>
       </c>
       <c r="BA18" s="1">
-        <v>1443.480000</v>
+        <v>1443.48</v>
       </c>
       <c r="BB18" s="1">
-        <v>-364.275000</v>
+        <v>-364.27499999999998</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>22996.000946</v>
@@ -4758,210 +5174,210 @@
         <v>6.387778</v>
       </c>
       <c r="BF18" s="1">
-        <v>1528.680000</v>
+        <v>1528.68</v>
       </c>
       <c r="BG18" s="1">
-        <v>-613.143000</v>
+        <v>-613.14300000000003</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>23006.594004</v>
+        <v>23006.594003999999</v>
       </c>
       <c r="BJ18" s="1">
-        <v>6.390721</v>
+        <v>6.3907210000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1683.680000</v>
+        <v>1683.68</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1058.950000</v>
+        <v>-1058.95</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>23017.864629</v>
       </c>
       <c r="BO18" s="1">
-        <v>6.393851</v>
+        <v>6.3938509999999997</v>
       </c>
       <c r="BP18" s="1">
-        <v>1979.510000</v>
+        <v>1979.51</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1830.230000</v>
+        <v>-1830.23</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>23028.451242</v>
+        <v>23028.451241999999</v>
       </c>
       <c r="BT18" s="1">
-        <v>6.396792</v>
+        <v>6.3967919999999996</v>
       </c>
       <c r="BU18" s="1">
-        <v>2369.380000</v>
+        <v>2369.38</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2721.780000</v>
+        <v>-2721.78</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>23039.319077</v>
       </c>
       <c r="BY18" s="1">
-        <v>6.399811</v>
+        <v>6.3998109999999997</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2853.030000</v>
+        <v>2853.03</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3689.800000</v>
+        <v>-3689.8</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>23051.922889</v>
+        <v>23051.922889000001</v>
       </c>
       <c r="CD18" s="1">
-        <v>6.403312</v>
+        <v>6.4033119999999997</v>
       </c>
       <c r="CE18" s="1">
-        <v>4277.260000</v>
+        <v>4277.26</v>
       </c>
       <c r="CF18" s="1">
-        <v>-6017.780000</v>
+        <v>-6017.78</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>22879.668269</v>
+        <v>22879.668269000002</v>
       </c>
       <c r="B19" s="1">
-        <v>6.355463</v>
+        <v>6.3554630000000003</v>
       </c>
       <c r="C19" s="1">
-        <v>1243.220000</v>
+        <v>1243.22</v>
       </c>
       <c r="D19" s="1">
-        <v>-308.423000</v>
+        <v>-308.423</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>22889.741545</v>
+        <v>22889.741545000001</v>
       </c>
       <c r="G19" s="1">
-        <v>6.358262</v>
+        <v>6.3582619999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>1267.680000</v>
+        <v>1267.68</v>
       </c>
       <c r="I19" s="1">
-        <v>-265.435000</v>
+        <v>-265.435</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>22899.930338</v>
+        <v>22899.930337999998</v>
       </c>
       <c r="L19" s="1">
-        <v>6.361092</v>
+        <v>6.3610920000000002</v>
       </c>
       <c r="M19" s="1">
-        <v>1303.870000</v>
+        <v>1303.8699999999999</v>
       </c>
       <c r="N19" s="1">
-        <v>-202.854000</v>
+        <v>-202.85400000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>22910.164291</v>
+        <v>22910.164291000001</v>
       </c>
       <c r="Q19" s="1">
-        <v>6.363935</v>
+        <v>6.3639349999999997</v>
       </c>
       <c r="R19" s="1">
-        <v>1315.460000</v>
+        <v>1315.46</v>
       </c>
       <c r="S19" s="1">
-        <v>-184.508000</v>
+        <v>-184.50800000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
         <v>22920.642806</v>
       </c>
       <c r="V19" s="1">
-        <v>6.366845</v>
+        <v>6.3668449999999996</v>
       </c>
       <c r="W19" s="1">
-        <v>1328.160000</v>
+        <v>1328.16</v>
       </c>
       <c r="X19" s="1">
-        <v>-170.738000</v>
+        <v>-170.738</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>22931.476391</v>
       </c>
       <c r="AA19" s="1">
-        <v>6.369855</v>
+        <v>6.3698550000000003</v>
       </c>
       <c r="AB19" s="1">
-        <v>1345.400000</v>
+        <v>1345.4</v>
       </c>
       <c r="AC19" s="1">
-        <v>-168.485000</v>
+        <v>-168.48500000000001</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>22942.027817</v>
+        <v>22942.027816999998</v>
       </c>
       <c r="AF19" s="1">
-        <v>6.372786</v>
+        <v>6.3727859999999996</v>
       </c>
       <c r="AG19" s="1">
-        <v>1357.960000</v>
+        <v>1357.96</v>
       </c>
       <c r="AH19" s="1">
-        <v>-178.165000</v>
+        <v>-178.16499999999999</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>22952.565323</v>
+        <v>22952.565322999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>6.375713</v>
+        <v>6.3757130000000002</v>
       </c>
       <c r="AL19" s="1">
-        <v>1378.370000</v>
+        <v>1378.37</v>
       </c>
       <c r="AM19" s="1">
-        <v>-208.075000</v>
+        <v>-208.07499999999999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>22963.449997</v>
@@ -4970,664 +5386,664 @@
         <v>6.378736</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1399.800000</v>
+        <v>1399.8</v>
       </c>
       <c r="AR19" s="1">
-        <v>-251.965000</v>
+        <v>-251.965</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>22974.476558</v>
+        <v>22974.476557999998</v>
       </c>
       <c r="AU19" s="1">
         <v>6.381799</v>
       </c>
       <c r="AV19" s="1">
-        <v>1424.240000</v>
+        <v>1424.24</v>
       </c>
       <c r="AW19" s="1">
-        <v>-312.052000</v>
+        <v>-312.05200000000002</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>22985.389040</v>
+        <v>22985.389039999998</v>
       </c>
       <c r="AZ19" s="1">
-        <v>6.384830</v>
+        <v>6.38483</v>
       </c>
       <c r="BA19" s="1">
-        <v>1443.510000</v>
+        <v>1443.51</v>
       </c>
       <c r="BB19" s="1">
-        <v>-364.283000</v>
+        <v>-364.28300000000002</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>22996.413121</v>
+        <v>22996.413121000001</v>
       </c>
       <c r="BE19" s="1">
         <v>6.387893</v>
       </c>
       <c r="BF19" s="1">
-        <v>1528.670000</v>
+        <v>1528.67</v>
       </c>
       <c r="BG19" s="1">
-        <v>-613.185000</v>
+        <v>-613.18499999999995</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>23007.015108</v>
       </c>
       <c r="BJ19" s="1">
-        <v>6.390838</v>
+        <v>6.3908379999999996</v>
       </c>
       <c r="BK19" s="1">
-        <v>1683.620000</v>
+        <v>1683.62</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1058.990000</v>
+        <v>-1058.99</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>23018.262916</v>
       </c>
       <c r="BO19" s="1">
-        <v>6.393962</v>
+        <v>6.3939620000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1979.570000</v>
+        <v>1979.57</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1830.100000</v>
+        <v>-1830.1</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>23028.879286</v>
+        <v>23028.879285999999</v>
       </c>
       <c r="BT19" s="1">
-        <v>6.396911</v>
+        <v>6.3969110000000002</v>
       </c>
       <c r="BU19" s="1">
-        <v>2368.730000</v>
+        <v>2368.73</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2721.840000</v>
+        <v>-2721.84</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>23039.742136</v>
+        <v>23039.742136000001</v>
       </c>
       <c r="BY19" s="1">
-        <v>6.399928</v>
+        <v>6.3999280000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2853.190000</v>
+        <v>2853.19</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3689.220000</v>
+        <v>-3689.22</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>23052.462041</v>
+        <v>23052.462040999999</v>
       </c>
       <c r="CD19" s="1">
-        <v>6.403462</v>
+        <v>6.4034620000000002</v>
       </c>
       <c r="CE19" s="1">
-        <v>4261.330000</v>
+        <v>4261.33</v>
       </c>
       <c r="CF19" s="1">
-        <v>-6030.890000</v>
+        <v>-6030.89</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>22880.012491</v>
+        <v>22880.012491000001</v>
       </c>
       <c r="B20" s="1">
-        <v>6.355559</v>
+        <v>6.3555590000000004</v>
       </c>
       <c r="C20" s="1">
-        <v>1243.580000</v>
+        <v>1243.58</v>
       </c>
       <c r="D20" s="1">
-        <v>-308.533000</v>
+        <v>-308.53300000000002</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>22890.075821</v>
+        <v>22890.075820999999</v>
       </c>
       <c r="G20" s="1">
-        <v>6.358354</v>
+        <v>6.3583540000000003</v>
       </c>
       <c r="H20" s="1">
-        <v>1268.770000</v>
+        <v>1268.77</v>
       </c>
       <c r="I20" s="1">
-        <v>-266.089000</v>
+        <v>-266.089</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>22900.273568</v>
+        <v>22900.273568000001</v>
       </c>
       <c r="L20" s="1">
-        <v>6.361187</v>
+        <v>6.3611870000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>1303.870000</v>
+        <v>1303.8699999999999</v>
       </c>
       <c r="N20" s="1">
-        <v>-202.768000</v>
+        <v>-202.768</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>22910.815539</v>
+        <v>22910.815538999999</v>
       </c>
       <c r="Q20" s="1">
         <v>6.364115</v>
       </c>
       <c r="R20" s="1">
-        <v>1315.290000</v>
+        <v>1315.29</v>
       </c>
       <c r="S20" s="1">
-        <v>-184.546000</v>
+        <v>-184.54599999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>22921.380324</v>
+        <v>22921.380324000002</v>
       </c>
       <c r="V20" s="1">
-        <v>6.367050</v>
+        <v>6.3670499999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>1328.320000</v>
+        <v>1328.32</v>
       </c>
       <c r="X20" s="1">
-        <v>-170.713000</v>
+        <v>-170.71299999999999</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>22931.860792</v>
+        <v>22931.860791999999</v>
       </c>
       <c r="AA20" s="1">
         <v>6.369961</v>
       </c>
       <c r="AB20" s="1">
-        <v>1345.370000</v>
+        <v>1345.37</v>
       </c>
       <c r="AC20" s="1">
-        <v>-168.486000</v>
+        <v>-168.48599999999999</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>22942.371512</v>
+        <v>22942.371512000002</v>
       </c>
       <c r="AF20" s="1">
-        <v>6.372881</v>
+        <v>6.3728809999999996</v>
       </c>
       <c r="AG20" s="1">
-        <v>1357.920000</v>
+        <v>1357.92</v>
       </c>
       <c r="AH20" s="1">
-        <v>-178.165000</v>
+        <v>-178.16499999999999</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>22952.912492</v>
+        <v>22952.912491999999</v>
       </c>
       <c r="AK20" s="1">
-        <v>6.375809</v>
+        <v>6.3758090000000003</v>
       </c>
       <c r="AL20" s="1">
-        <v>1378.310000</v>
+        <v>1378.31</v>
       </c>
       <c r="AM20" s="1">
-        <v>-208.098000</v>
+        <v>-208.09800000000001</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>22963.810092</v>
       </c>
       <c r="AP20" s="1">
-        <v>6.378836</v>
+        <v>6.3788359999999997</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1399.840000</v>
+        <v>1399.84</v>
       </c>
       <c r="AR20" s="1">
-        <v>-251.940000</v>
+        <v>-251.94</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>22974.889230</v>
+        <v>22974.889230000001</v>
       </c>
       <c r="AU20" s="1">
-        <v>6.381914</v>
+        <v>6.3819140000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1424.240000</v>
+        <v>1424.24</v>
       </c>
       <c r="AW20" s="1">
-        <v>-312.059000</v>
+        <v>-312.05900000000003</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>22985.816624</v>
+        <v>22985.816623999999</v>
       </c>
       <c r="AZ20" s="1">
-        <v>6.384949</v>
+        <v>6.3849489999999998</v>
       </c>
       <c r="BA20" s="1">
-        <v>1443.480000</v>
+        <v>1443.48</v>
       </c>
       <c r="BB20" s="1">
-        <v>-364.293000</v>
+        <v>-364.29300000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>22996.719686</v>
       </c>
       <c r="BE20" s="1">
-        <v>6.387978</v>
+        <v>6.3879780000000004</v>
       </c>
       <c r="BF20" s="1">
-        <v>1528.680000</v>
+        <v>1528.68</v>
       </c>
       <c r="BG20" s="1">
-        <v>-613.174000</v>
+        <v>-613.17399999999998</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>23007.341970</v>
+        <v>23007.341970000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>6.390928</v>
+        <v>6.3909279999999997</v>
       </c>
       <c r="BK20" s="1">
-        <v>1683.670000</v>
+        <v>1683.67</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1058.970000</v>
+        <v>-1058.97</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>23018.685478</v>
+        <v>23018.685477999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>6.394079</v>
+        <v>6.3940789999999996</v>
       </c>
       <c r="BP20" s="1">
-        <v>1979.470000</v>
+        <v>1979.47</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1830.050000</v>
+        <v>-1830.05</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>23029.292950</v>
+        <v>23029.292949999999</v>
       </c>
       <c r="BT20" s="1">
-        <v>6.397026</v>
+        <v>6.3970260000000003</v>
       </c>
       <c r="BU20" s="1">
-        <v>2367.810000</v>
+        <v>2367.81</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2721.840000</v>
+        <v>-2721.84</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>23040.164047</v>
+        <v>23040.164046999998</v>
       </c>
       <c r="BY20" s="1">
-        <v>6.400046</v>
+        <v>6.4000459999999997</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2852.910000</v>
+        <v>2852.91</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3688.730000</v>
+        <v>-3688.73</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>23053.001719</v>
       </c>
       <c r="CD20" s="1">
-        <v>6.403612</v>
+        <v>6.4036119999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>4285.530000</v>
+        <v>4285.53</v>
       </c>
       <c r="CF20" s="1">
-        <v>-6027.240000</v>
+        <v>-6027.24</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>22880.351755</v>
       </c>
       <c r="B21" s="1">
-        <v>6.355653</v>
+        <v>6.3556530000000002</v>
       </c>
       <c r="C21" s="1">
-        <v>1243.390000</v>
+        <v>1243.3900000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>-308.451000</v>
+        <v>-308.45100000000002</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>22890.735502</v>
       </c>
       <c r="G21" s="1">
-        <v>6.358538</v>
+        <v>6.3585380000000002</v>
       </c>
       <c r="H21" s="1">
-        <v>1269.180000</v>
+        <v>1269.18</v>
       </c>
       <c r="I21" s="1">
-        <v>-265.723000</v>
+        <v>-265.72300000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>22900.939697</v>
+        <v>22900.939697000002</v>
       </c>
       <c r="L21" s="1">
-        <v>6.361372</v>
+        <v>6.3613720000000002</v>
       </c>
       <c r="M21" s="1">
-        <v>1303.880000</v>
+        <v>1303.8800000000001</v>
       </c>
       <c r="N21" s="1">
-        <v>-202.813000</v>
+        <v>-202.81299999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>22911.210354</v>
+        <v>22911.210353999999</v>
       </c>
       <c r="Q21" s="1">
-        <v>6.364225</v>
+        <v>6.3642250000000002</v>
       </c>
       <c r="R21" s="1">
-        <v>1315.340000</v>
+        <v>1315.34</v>
       </c>
       <c r="S21" s="1">
-        <v>-184.482000</v>
+        <v>-184.482</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>22921.709668</v>
       </c>
       <c r="V21" s="1">
-        <v>6.367142</v>
+        <v>6.3671420000000003</v>
       </c>
       <c r="W21" s="1">
-        <v>1328.360000</v>
+        <v>1328.36</v>
       </c>
       <c r="X21" s="1">
-        <v>-170.782000</v>
+        <v>-170.78200000000001</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>22932.209975</v>
+        <v>22932.209975000002</v>
       </c>
       <c r="AA21" s="1">
-        <v>6.370058</v>
+        <v>6.3700580000000002</v>
       </c>
       <c r="AB21" s="1">
-        <v>1345.100000</v>
+        <v>1345.1</v>
       </c>
       <c r="AC21" s="1">
-        <v>-168.458000</v>
+        <v>-168.458</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>22942.711768</v>
+        <v>22942.711768000001</v>
       </c>
       <c r="AF21" s="1">
-        <v>6.372975</v>
+        <v>6.3729750000000003</v>
       </c>
       <c r="AG21" s="1">
-        <v>1357.940000</v>
+        <v>1357.94</v>
       </c>
       <c r="AH21" s="1">
-        <v>-178.218000</v>
+        <v>-178.21799999999999</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>22953.258736</v>
       </c>
       <c r="AK21" s="1">
-        <v>6.375905</v>
+        <v>6.3759050000000004</v>
       </c>
       <c r="AL21" s="1">
-        <v>1378.350000</v>
+        <v>1378.35</v>
       </c>
       <c r="AM21" s="1">
-        <v>-208.060000</v>
+        <v>-208.06</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>22964.231196</v>
+        <v>22964.231196000001</v>
       </c>
       <c r="AP21" s="1">
-        <v>6.378953</v>
+        <v>6.3789530000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1399.810000</v>
+        <v>1399.81</v>
       </c>
       <c r="AR21" s="1">
-        <v>-252.004000</v>
+        <v>-252.00399999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>22975.206669</v>
+        <v>22975.206668999999</v>
       </c>
       <c r="AU21" s="1">
         <v>6.382002</v>
       </c>
       <c r="AV21" s="1">
-        <v>1424.230000</v>
+        <v>1424.23</v>
       </c>
       <c r="AW21" s="1">
-        <v>-312.059000</v>
+        <v>-312.05900000000003</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>22986.105790</v>
+        <v>22986.105790000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>6.385029</v>
+        <v>6.3850290000000003</v>
       </c>
       <c r="BA21" s="1">
-        <v>1443.450000</v>
+        <v>1443.45</v>
       </c>
       <c r="BB21" s="1">
-        <v>-364.285000</v>
+        <v>-364.28500000000003</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>22997.082720</v>
+        <v>22997.082719999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>6.388079</v>
+        <v>6.3880790000000003</v>
       </c>
       <c r="BF21" s="1">
-        <v>1528.730000</v>
+        <v>1528.73</v>
       </c>
       <c r="BG21" s="1">
-        <v>-613.161000</v>
+        <v>-613.16099999999994</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>23007.740258</v>
+        <v>23007.740258000002</v>
       </c>
       <c r="BJ21" s="1">
-        <v>6.391039</v>
+        <v>6.3910390000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1683.600000</v>
+        <v>1683.6</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1058.980000</v>
+        <v>-1058.98</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>23019.081779</v>
       </c>
       <c r="BO21" s="1">
-        <v>6.394189</v>
+        <v>6.3941889999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1979.420000</v>
+        <v>1979.42</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1830.100000</v>
+        <v>-1830.1</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>23029.722455</v>
+        <v>23029.722454999999</v>
       </c>
       <c r="BT21" s="1">
-        <v>6.397145</v>
+        <v>6.3971450000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>2367.300000</v>
+        <v>2367.3000000000002</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2721.590000</v>
+        <v>-2721.59</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>23040.591288</v>
       </c>
       <c r="BY21" s="1">
-        <v>6.400164</v>
+        <v>6.4001640000000002</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2852.380000</v>
+        <v>2852.38</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3688.630000</v>
+        <v>-3688.63</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>23053.542823</v>
       </c>
       <c r="CD21" s="1">
-        <v>6.403762</v>
+        <v>6.4037620000000004</v>
       </c>
       <c r="CE21" s="1">
-        <v>4266.840000</v>
+        <v>4266.84</v>
       </c>
       <c r="CF21" s="1">
-        <v>-6016.630000</v>
+        <v>-6016.63</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>22881.008495</v>
+        <v>22881.008494999998</v>
       </c>
       <c r="B22" s="1">
         <v>6.355836</v>
       </c>
       <c r="C22" s="1">
-        <v>1243.730000</v>
+        <v>1243.73</v>
       </c>
       <c r="D22" s="1">
-        <v>-308.711000</v>
+        <v>-308.71100000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>22891.117918</v>
@@ -5636,722 +6052,722 @@
         <v>6.358644</v>
       </c>
       <c r="H22" s="1">
-        <v>1268.540000</v>
+        <v>1268.54</v>
       </c>
       <c r="I22" s="1">
-        <v>-266.498000</v>
+        <v>-266.49799999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>22901.312724</v>
+        <v>22901.312723999999</v>
       </c>
       <c r="L22" s="1">
-        <v>6.361476</v>
+        <v>6.3614759999999997</v>
       </c>
       <c r="M22" s="1">
-        <v>1303.760000</v>
+        <v>1303.76</v>
       </c>
       <c r="N22" s="1">
-        <v>-202.930000</v>
+        <v>-202.93</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>22911.558833</v>
+        <v>22911.558832999999</v>
       </c>
       <c r="Q22" s="1">
-        <v>6.364322</v>
+        <v>6.3643219999999996</v>
       </c>
       <c r="R22" s="1">
-        <v>1315.370000</v>
+        <v>1315.37</v>
       </c>
       <c r="S22" s="1">
-        <v>-184.426000</v>
+        <v>-184.42599999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>22922.028100</v>
+        <v>22922.0281</v>
       </c>
       <c r="V22" s="1">
-        <v>6.367230</v>
+        <v>6.3672300000000002</v>
       </c>
       <c r="W22" s="1">
-        <v>1328.260000</v>
+        <v>1328.26</v>
       </c>
       <c r="X22" s="1">
-        <v>-170.694000</v>
+        <v>-170.69399999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>22932.558699</v>
+        <v>22932.558699000001</v>
       </c>
       <c r="AA22" s="1">
-        <v>6.370155</v>
+        <v>6.3701549999999996</v>
       </c>
       <c r="AB22" s="1">
-        <v>1345.220000</v>
+        <v>1345.22</v>
       </c>
       <c r="AC22" s="1">
-        <v>-168.467000</v>
+        <v>-168.46700000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>22943.139853</v>
+        <v>22943.139853000001</v>
       </c>
       <c r="AF22" s="1">
         <v>6.373094</v>
       </c>
       <c r="AG22" s="1">
-        <v>1357.900000</v>
+        <v>1357.9</v>
       </c>
       <c r="AH22" s="1">
-        <v>-178.212000</v>
+        <v>-178.21199999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>22953.671629</v>
       </c>
       <c r="AK22" s="1">
-        <v>6.376020</v>
+        <v>6.3760199999999996</v>
       </c>
       <c r="AL22" s="1">
-        <v>1378.340000</v>
+        <v>1378.34</v>
       </c>
       <c r="AM22" s="1">
-        <v>-208.075000</v>
+        <v>-208.07499999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>22964.529324</v>
+        <v>22964.529323999999</v>
       </c>
       <c r="AP22" s="1">
-        <v>6.379036</v>
+        <v>6.3790360000000002</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1399.800000</v>
+        <v>1399.8</v>
       </c>
       <c r="AR22" s="1">
-        <v>-251.978000</v>
+        <v>-251.97800000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>22975.570239</v>
+        <v>22975.570239000001</v>
       </c>
       <c r="AU22" s="1">
-        <v>6.382103</v>
+        <v>6.3821029999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>1424.240000</v>
+        <v>1424.24</v>
       </c>
       <c r="AW22" s="1">
-        <v>-312.089000</v>
+        <v>-312.089</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>22986.462382</v>
+        <v>22986.462382000002</v>
       </c>
       <c r="AZ22" s="1">
-        <v>6.385128</v>
+        <v>6.3851279999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1443.470000</v>
+        <v>1443.47</v>
       </c>
       <c r="BB22" s="1">
-        <v>-364.283000</v>
+        <v>-364.28300000000002</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>22997.442816</v>
+        <v>22997.442815999999</v>
       </c>
       <c r="BE22" s="1">
-        <v>6.388179</v>
+        <v>6.3881790000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1528.670000</v>
+        <v>1528.67</v>
       </c>
       <c r="BG22" s="1">
-        <v>-613.125000</v>
+        <v>-613.125</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>23008.121186</v>
       </c>
       <c r="BJ22" s="1">
-        <v>6.391145</v>
+        <v>6.3911449999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1683.610000</v>
+        <v>1683.61</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1058.950000</v>
+        <v>-1058.95</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>23019.502883</v>
+        <v>23019.502883000001</v>
       </c>
       <c r="BO22" s="1">
-        <v>6.394306</v>
+        <v>6.3943060000000003</v>
       </c>
       <c r="BP22" s="1">
-        <v>1979.330000</v>
+        <v>1979.33</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1830.180000</v>
+        <v>-1830.18</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>23030.149013</v>
+        <v>23030.149012999998</v>
       </c>
       <c r="BT22" s="1">
-        <v>6.397264</v>
+        <v>6.3972639999999998</v>
       </c>
       <c r="BU22" s="1">
-        <v>2366.670000</v>
+        <v>2366.67</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2721.060000</v>
+        <v>-2721.06</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>23041.005446</v>
+        <v>23041.005445999999</v>
       </c>
       <c r="BY22" s="1">
-        <v>6.400279</v>
+        <v>6.4002790000000003</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2853.030000</v>
+        <v>2853.03</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3689.880000</v>
+        <v>-3689.88</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>23054.082501</v>
+        <v>23054.082501000001</v>
       </c>
       <c r="CD22" s="1">
         <v>6.403912</v>
       </c>
       <c r="CE22" s="1">
-        <v>4271.430000</v>
+        <v>4271.43</v>
       </c>
       <c r="CF22" s="1">
-        <v>-6035.340000</v>
+        <v>-6035.34</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>22881.377500</v>
+        <v>22881.377499999999</v>
       </c>
       <c r="B23" s="1">
-        <v>6.355938</v>
+        <v>6.3559380000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>1243.850000</v>
+        <v>1243.8499999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>-308.537000</v>
+        <v>-308.53699999999998</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>22891.465613</v>
       </c>
       <c r="G23" s="1">
-        <v>6.358740</v>
+        <v>6.3587400000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>1268.570000</v>
+        <v>1268.57</v>
       </c>
       <c r="I23" s="1">
-        <v>-265.951000</v>
+        <v>-265.95100000000002</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>22901.657438</v>
+        <v>22901.657437999998</v>
       </c>
       <c r="L23" s="1">
-        <v>6.361572</v>
+        <v>6.3615719999999998</v>
       </c>
       <c r="M23" s="1">
-        <v>1303.920000</v>
+        <v>1303.92</v>
       </c>
       <c r="N23" s="1">
-        <v>-202.982000</v>
+        <v>-202.982</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>22911.911697</v>
       </c>
       <c r="Q23" s="1">
-        <v>6.364420</v>
+        <v>6.36442</v>
       </c>
       <c r="R23" s="1">
-        <v>1315.420000</v>
+        <v>1315.42</v>
       </c>
       <c r="S23" s="1">
-        <v>-184.501000</v>
+        <v>-184.501</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>22922.450691</v>
+        <v>22922.450690999998</v>
       </c>
       <c r="V23" s="1">
-        <v>6.367347</v>
+        <v>6.3673469999999996</v>
       </c>
       <c r="W23" s="1">
-        <v>1328.300000</v>
+        <v>1328.3</v>
       </c>
       <c r="X23" s="1">
-        <v>-170.731000</v>
+        <v>-170.73099999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>22932.971829</v>
+        <v>22932.971828999998</v>
       </c>
       <c r="AA23" s="1">
-        <v>6.370270</v>
+        <v>6.3702699999999997</v>
       </c>
       <c r="AB23" s="1">
-        <v>1345.240000</v>
+        <v>1345.24</v>
       </c>
       <c r="AC23" s="1">
-        <v>-168.449000</v>
+        <v>-168.44900000000001</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>22943.405176</v>
       </c>
       <c r="AF23" s="1">
-        <v>6.373168</v>
+        <v>6.3731679999999997</v>
       </c>
       <c r="AG23" s="1">
-        <v>1357.930000</v>
+        <v>1357.93</v>
       </c>
       <c r="AH23" s="1">
-        <v>-178.169000</v>
+        <v>-178.16900000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>22953.970964</v>
       </c>
       <c r="AK23" s="1">
-        <v>6.376103</v>
+        <v>6.3761029999999996</v>
       </c>
       <c r="AL23" s="1">
-        <v>1378.340000</v>
+        <v>1378.34</v>
       </c>
       <c r="AM23" s="1">
-        <v>-208.066000</v>
+        <v>-208.066</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>22964.890876</v>
+        <v>22964.890876000001</v>
       </c>
       <c r="AP23" s="1">
-        <v>6.379136</v>
+        <v>6.3791359999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1399.790000</v>
+        <v>1399.79</v>
       </c>
       <c r="AR23" s="1">
-        <v>-251.957000</v>
+        <v>-251.95699999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>22975.934300</v>
+        <v>22975.934300000001</v>
       </c>
       <c r="AU23" s="1">
-        <v>6.382204</v>
+        <v>6.3822039999999998</v>
       </c>
       <c r="AV23" s="1">
-        <v>1424.220000</v>
+        <v>1424.22</v>
       </c>
       <c r="AW23" s="1">
-        <v>-312.066000</v>
+        <v>-312.06599999999997</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>22986.819527</v>
       </c>
       <c r="AZ23" s="1">
-        <v>6.385228</v>
+        <v>6.3852279999999997</v>
       </c>
       <c r="BA23" s="1">
-        <v>1443.510000</v>
+        <v>1443.51</v>
       </c>
       <c r="BB23" s="1">
-        <v>-364.275000</v>
+        <v>-364.27499999999998</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>22998.163999</v>
       </c>
       <c r="BE23" s="1">
-        <v>6.388379</v>
+        <v>6.3883789999999996</v>
       </c>
       <c r="BF23" s="1">
-        <v>1528.740000</v>
+        <v>1528.74</v>
       </c>
       <c r="BG23" s="1">
-        <v>-613.132000</v>
+        <v>-613.13199999999995</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>23008.898912</v>
+        <v>23008.898912000001</v>
       </c>
       <c r="BJ23" s="1">
-        <v>6.391361</v>
+        <v>6.3913609999999998</v>
       </c>
       <c r="BK23" s="1">
-        <v>1683.590000</v>
+        <v>1683.59</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1059.000000</v>
+        <v>-1059</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>23019.898693</v>
+        <v>23019.898692999999</v>
       </c>
       <c r="BO23" s="1">
-        <v>6.394416</v>
+        <v>6.3944159999999997</v>
       </c>
       <c r="BP23" s="1">
-        <v>1979.450000</v>
+        <v>1979.45</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1829.950000</v>
+        <v>-1829.95</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>23030.564736</v>
       </c>
       <c r="BT23" s="1">
-        <v>6.397379</v>
+        <v>6.3973789999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>2366.260000</v>
+        <v>2366.2600000000002</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2720.890000</v>
+        <v>-2720.89</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>23041.460773</v>
+        <v>23041.460772999999</v>
       </c>
       <c r="BY23" s="1">
-        <v>6.400406</v>
+        <v>6.4004060000000003</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2852.530000</v>
+        <v>2852.53</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3689.140000</v>
+        <v>-3689.14</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>23054.929207</v>
+        <v>23054.929207000001</v>
       </c>
       <c r="CD23" s="1">
         <v>6.404147</v>
       </c>
       <c r="CE23" s="1">
-        <v>4264.550000</v>
+        <v>4264.55</v>
       </c>
       <c r="CF23" s="1">
-        <v>-6018.660000</v>
+        <v>-6018.66</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>22881.720745</v>
+        <v>22881.720744999999</v>
       </c>
       <c r="B24" s="1">
-        <v>6.356034</v>
+        <v>6.3560340000000002</v>
       </c>
       <c r="C24" s="1">
-        <v>1243.700000</v>
+        <v>1243.7</v>
       </c>
       <c r="D24" s="1">
-        <v>-308.963000</v>
+        <v>-308.96300000000002</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>22891.807851</v>
+        <v>22891.807851000001</v>
       </c>
       <c r="G24" s="1">
-        <v>6.358836</v>
+        <v>6.3588360000000002</v>
       </c>
       <c r="H24" s="1">
-        <v>1269.200000</v>
+        <v>1269.2</v>
       </c>
       <c r="I24" s="1">
-        <v>-266.393000</v>
+        <v>-266.39299999999997</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>22902.004606</v>
+        <v>22902.004605999999</v>
       </c>
       <c r="L24" s="1">
-        <v>6.361668</v>
+        <v>6.3616679999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>1303.800000</v>
+        <v>1303.8</v>
       </c>
       <c r="N24" s="1">
-        <v>-202.625000</v>
+        <v>-202.625</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>22912.328369</v>
+        <v>22912.328368999999</v>
       </c>
       <c r="Q24" s="1">
-        <v>6.364536</v>
+        <v>6.3645360000000002</v>
       </c>
       <c r="R24" s="1">
-        <v>1315.430000</v>
+        <v>1315.43</v>
       </c>
       <c r="S24" s="1">
-        <v>-184.551000</v>
+        <v>-184.55099999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>22922.727460</v>
+        <v>22922.727459999998</v>
       </c>
       <c r="V24" s="1">
-        <v>6.367424</v>
+        <v>6.3674239999999998</v>
       </c>
       <c r="W24" s="1">
-        <v>1328.340000</v>
+        <v>1328.34</v>
       </c>
       <c r="X24" s="1">
-        <v>-170.819000</v>
+        <v>-170.81899999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>22933.264965</v>
+        <v>22933.264964999998</v>
       </c>
       <c r="AA24" s="1">
-        <v>6.370351</v>
+        <v>6.3703510000000003</v>
       </c>
       <c r="AB24" s="1">
-        <v>1344.850000</v>
+        <v>1344.85</v>
       </c>
       <c r="AC24" s="1">
-        <v>-168.416000</v>
+        <v>-168.416</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>22943.749433</v>
+        <v>22943.749433000001</v>
       </c>
       <c r="AF24" s="1">
-        <v>6.373264</v>
+        <v>6.3732639999999998</v>
       </c>
       <c r="AG24" s="1">
-        <v>1357.980000</v>
+        <v>1357.98</v>
       </c>
       <c r="AH24" s="1">
-        <v>-178.094000</v>
+        <v>-178.09399999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>22954.319641</v>
+        <v>22954.319640999998</v>
       </c>
       <c r="AK24" s="1">
-        <v>6.376200</v>
+        <v>6.3761999999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>1378.320000</v>
+        <v>1378.32</v>
       </c>
       <c r="AM24" s="1">
-        <v>-208.068000</v>
+        <v>-208.06800000000001</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>22965.250474</v>
       </c>
       <c r="AP24" s="1">
-        <v>6.379236</v>
+        <v>6.3792359999999997</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1399.820000</v>
+        <v>1399.82</v>
       </c>
       <c r="AR24" s="1">
-        <v>-251.967000</v>
+        <v>-251.96700000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>22976.664412</v>
+        <v>22976.664411999998</v>
       </c>
       <c r="AU24" s="1">
-        <v>6.382407</v>
+        <v>6.3824069999999997</v>
       </c>
       <c r="AV24" s="1">
-        <v>1424.230000</v>
+        <v>1424.23</v>
       </c>
       <c r="AW24" s="1">
-        <v>-312.094000</v>
+        <v>-312.09399999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>22987.545149</v>
+        <v>22987.545149000001</v>
       </c>
       <c r="AZ24" s="1">
-        <v>6.385429</v>
+        <v>6.3854290000000002</v>
       </c>
       <c r="BA24" s="1">
-        <v>1443.500000</v>
+        <v>1443.5</v>
       </c>
       <c r="BB24" s="1">
-        <v>-364.291000</v>
+        <v>-364.291</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>22998.528063</v>
+        <v>22998.528063000002</v>
       </c>
       <c r="BE24" s="1">
-        <v>6.388480</v>
+        <v>6.3884800000000004</v>
       </c>
       <c r="BF24" s="1">
-        <v>1528.660000</v>
+        <v>1528.66</v>
       </c>
       <c r="BG24" s="1">
-        <v>-613.087000</v>
+        <v>-613.08699999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>23009.241648</v>
+        <v>23009.241647999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>6.391456</v>
+        <v>6.3914559999999998</v>
       </c>
       <c r="BK24" s="1">
-        <v>1683.660000</v>
+        <v>1683.66</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1058.960000</v>
+        <v>-1058.96</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>23020.319299</v>
+        <v>23020.319298999999</v>
       </c>
       <c r="BO24" s="1">
         <v>6.394533</v>
       </c>
       <c r="BP24" s="1">
-        <v>1979.500000</v>
+        <v>1979.5</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1830.110000</v>
+        <v>-1830.11</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>23031.302707</v>
+        <v>23031.302706999999</v>
       </c>
       <c r="BT24" s="1">
-        <v>6.397584</v>
+        <v>6.3975840000000002</v>
       </c>
       <c r="BU24" s="1">
-        <v>2366.020000</v>
+        <v>2366.02</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2719.920000</v>
+        <v>-2719.92</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>23042.210228</v>
@@ -6360,31 +6776,31 @@
         <v>6.400614</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2852.580000</v>
+        <v>2852.58</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3689.440000</v>
+        <v>-3689.44</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>23055.163251</v>
+        <v>23055.163251000002</v>
       </c>
       <c r="CD24" s="1">
-        <v>6.404212</v>
+        <v>6.4042120000000002</v>
       </c>
       <c r="CE24" s="1">
-        <v>4266.700000</v>
+        <v>4266.7</v>
       </c>
       <c r="CF24" s="1">
-        <v>-6018.870000</v>
+        <v>-6018.87</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>22882.062456</v>
       </c>
@@ -6392,512 +6808,513 @@
         <v>6.356128</v>
       </c>
       <c r="C25" s="1">
-        <v>1243.610000</v>
+        <v>1243.6099999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>-309.122000</v>
+        <v>-309.12200000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>22892.227080</v>
+        <v>22892.227080000001</v>
       </c>
       <c r="G25" s="1">
-        <v>6.358952</v>
+        <v>6.3589520000000004</v>
       </c>
       <c r="H25" s="1">
-        <v>1268.460000</v>
+        <v>1268.46</v>
       </c>
       <c r="I25" s="1">
-        <v>-266.777000</v>
+        <v>-266.77699999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>22902.434638</v>
+        <v>22902.434637999999</v>
       </c>
       <c r="L25" s="1">
-        <v>6.361787</v>
+        <v>6.3617869999999996</v>
       </c>
       <c r="M25" s="1">
-        <v>1304.040000</v>
+        <v>1304.04</v>
       </c>
       <c r="N25" s="1">
-        <v>-202.766000</v>
+        <v>-202.76599999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>22912.610560</v>
+        <v>22912.610560000001</v>
       </c>
       <c r="Q25" s="1">
-        <v>6.364614</v>
+        <v>6.3646140000000004</v>
       </c>
       <c r="R25" s="1">
-        <v>1315.400000</v>
+        <v>1315.4</v>
       </c>
       <c r="S25" s="1">
-        <v>-184.566000</v>
+        <v>-184.566</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>22923.074412</v>
+        <v>22923.074412000002</v>
       </c>
       <c r="V25" s="1">
         <v>6.367521</v>
       </c>
       <c r="W25" s="1">
-        <v>1328.310000</v>
+        <v>1328.31</v>
       </c>
       <c r="X25" s="1">
-        <v>-170.763000</v>
+        <v>-170.76300000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>22933.610708</v>
       </c>
       <c r="AA25" s="1">
-        <v>6.370447</v>
+        <v>6.3704470000000004</v>
       </c>
       <c r="AB25" s="1">
-        <v>1345.250000</v>
+        <v>1345.25</v>
       </c>
       <c r="AC25" s="1">
-        <v>-168.433000</v>
+        <v>-168.43299999999999</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>22944.093622</v>
       </c>
       <c r="AF25" s="1">
-        <v>6.373359</v>
+        <v>6.3733589999999998</v>
       </c>
       <c r="AG25" s="1">
-        <v>1357.940000</v>
+        <v>1357.94</v>
       </c>
       <c r="AH25" s="1">
-        <v>-178.132000</v>
+        <v>-178.13200000000001</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>22954.668861</v>
+        <v>22954.668860999998</v>
       </c>
       <c r="AK25" s="1">
-        <v>6.376297</v>
+        <v>6.3762970000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>1378.330000</v>
+        <v>1378.33</v>
       </c>
       <c r="AM25" s="1">
-        <v>-208.043000</v>
+        <v>-208.04300000000001</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>22965.970499</v>
+        <v>22965.970498999999</v>
       </c>
       <c r="AP25" s="1">
-        <v>6.379436</v>
+        <v>6.3794360000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1399.820000</v>
+        <v>1399.82</v>
       </c>
       <c r="AR25" s="1">
-        <v>-251.968000</v>
+        <v>-251.96799999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>22977.029004</v>
       </c>
       <c r="AU25" s="1">
-        <v>6.382508</v>
+        <v>6.3825079999999996</v>
       </c>
       <c r="AV25" s="1">
-        <v>1424.230000</v>
+        <v>1424.23</v>
       </c>
       <c r="AW25" s="1">
-        <v>-312.060000</v>
+        <v>-312.06</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>22987.920125</v>
+        <v>22987.920125000001</v>
       </c>
       <c r="AZ25" s="1">
-        <v>6.385533</v>
+        <v>6.3855329999999997</v>
       </c>
       <c r="BA25" s="1">
-        <v>1443.470000</v>
+        <v>1443.47</v>
       </c>
       <c r="BB25" s="1">
-        <v>-364.261000</v>
+        <v>-364.26100000000002</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>22998.890173</v>
       </c>
       <c r="BE25" s="1">
-        <v>6.388581</v>
+        <v>6.3885810000000003</v>
       </c>
       <c r="BF25" s="1">
-        <v>1528.660000</v>
+        <v>1528.66</v>
       </c>
       <c r="BG25" s="1">
-        <v>-613.134000</v>
+        <v>-613.13400000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>23009.941034</v>
+        <v>23009.941033999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>6.391650</v>
+        <v>6.3916500000000003</v>
       </c>
       <c r="BK25" s="1">
-        <v>1683.600000</v>
+        <v>1683.6</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1058.920000</v>
+        <v>-1058.92</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>23021.027586</v>
       </c>
       <c r="BO25" s="1">
-        <v>6.394730</v>
+        <v>6.39473</v>
       </c>
       <c r="BP25" s="1">
-        <v>1979.450000</v>
+        <v>1979.45</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1829.970000</v>
+        <v>-1829.97</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>23031.419302</v>
+        <v>23031.419301999998</v>
       </c>
       <c r="BT25" s="1">
-        <v>6.397616</v>
+        <v>6.3976160000000002</v>
       </c>
       <c r="BU25" s="1">
-        <v>2365.610000</v>
+        <v>2365.61</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2719.660000</v>
+        <v>-2719.66</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>23042.340714</v>
+        <v>23042.340714000002</v>
       </c>
       <c r="BY25" s="1">
-        <v>6.400650</v>
+        <v>6.4006499999999997</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2852.470000</v>
+        <v>2852.47</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3689.480000</v>
+        <v>-3689.48</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>23055.680083</v>
+        <v>23055.680082999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>6.404356</v>
+        <v>6.4043559999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>4267.340000</v>
+        <v>4267.34</v>
       </c>
       <c r="CF25" s="1">
-        <v>-6032.580000</v>
+        <v>-6032.58</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>22882.475624</v>
+        <v>22882.475623999999</v>
       </c>
       <c r="B26" s="1">
-        <v>6.356243</v>
+        <v>6.3562430000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>1243.790000</v>
+        <v>1243.79</v>
       </c>
       <c r="D26" s="1">
-        <v>-308.682000</v>
+        <v>-308.68200000000002</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>22892.502781</v>
+        <v>22892.502780999999</v>
       </c>
       <c r="G26" s="1">
-        <v>6.359029</v>
+        <v>6.3590289999999996</v>
       </c>
       <c r="H26" s="1">
-        <v>1269.350000</v>
+        <v>1269.3499999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>-266.419000</v>
+        <v>-266.41899999999998</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>22902.716366</v>
+        <v>22902.716366000001</v>
       </c>
       <c r="L26" s="1">
         <v>6.361866</v>
       </c>
       <c r="M26" s="1">
-        <v>1304.020000</v>
+        <v>1304.02</v>
       </c>
       <c r="N26" s="1">
-        <v>-202.775000</v>
+        <v>-202.77500000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>22912.957265</v>
+        <v>22912.957265000001</v>
       </c>
       <c r="Q26" s="1">
-        <v>6.364710</v>
+        <v>6.3647099999999996</v>
       </c>
       <c r="R26" s="1">
-        <v>1315.300000</v>
+        <v>1315.3</v>
       </c>
       <c r="S26" s="1">
-        <v>-184.559000</v>
+        <v>-184.559</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>22923.414419</v>
+        <v>22923.414419000001</v>
       </c>
       <c r="V26" s="1">
-        <v>6.367615</v>
+        <v>6.3676149999999998</v>
       </c>
       <c r="W26" s="1">
-        <v>1328.270000</v>
+        <v>1328.27</v>
       </c>
       <c r="X26" s="1">
-        <v>-170.809000</v>
+        <v>-170.809</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>22933.961349</v>
+        <v>22933.961349000001</v>
       </c>
       <c r="AA26" s="1">
-        <v>6.370545</v>
+        <v>6.3705449999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>1345.270000</v>
+        <v>1345.27</v>
       </c>
       <c r="AC26" s="1">
-        <v>-168.477000</v>
+        <v>-168.477</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>22944.778597</v>
       </c>
       <c r="AF26" s="1">
-        <v>6.373550</v>
+        <v>6.3735499999999998</v>
       </c>
       <c r="AG26" s="1">
-        <v>1357.890000</v>
+        <v>1357.89</v>
       </c>
       <c r="AH26" s="1">
-        <v>-178.113000</v>
+        <v>-178.113</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>22955.364248</v>
+        <v>22955.364248000002</v>
       </c>
       <c r="AK26" s="1">
-        <v>6.376490</v>
+        <v>6.3764900000000004</v>
       </c>
       <c r="AL26" s="1">
-        <v>1378.380000</v>
+        <v>1378.38</v>
       </c>
       <c r="AM26" s="1">
-        <v>-208.058000</v>
+        <v>-208.05799999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>22966.331795</v>
+        <v>22966.331794999998</v>
       </c>
       <c r="AP26" s="1">
         <v>6.379537</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1399.840000</v>
+        <v>1399.84</v>
       </c>
       <c r="AR26" s="1">
-        <v>-251.957000</v>
+        <v>-251.95699999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>22977.394028</v>
+        <v>22977.394027999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>6.382609</v>
+        <v>6.3826090000000004</v>
       </c>
       <c r="AV26" s="1">
-        <v>1424.200000</v>
+        <v>1424.2</v>
       </c>
       <c r="AW26" s="1">
-        <v>-312.050000</v>
+        <v>-312.05</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>22988.300093</v>
+        <v>22988.300093000002</v>
       </c>
       <c r="AZ26" s="1">
-        <v>6.385639</v>
+        <v>6.3856390000000003</v>
       </c>
       <c r="BA26" s="1">
-        <v>1443.480000</v>
+        <v>1443.48</v>
       </c>
       <c r="BB26" s="1">
-        <v>-364.304000</v>
+        <v>-364.30399999999997</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>22999.553827</v>
       </c>
       <c r="BE26" s="1">
-        <v>6.388765</v>
+        <v>6.3887650000000002</v>
       </c>
       <c r="BF26" s="1">
-        <v>1528.640000</v>
+        <v>1528.64</v>
       </c>
       <c r="BG26" s="1">
-        <v>-613.170000</v>
+        <v>-613.16999999999996</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>23010.399314</v>
+        <v>23010.399313999998</v>
       </c>
       <c r="BJ26" s="1">
-        <v>6.391778</v>
+        <v>6.3917780000000004</v>
       </c>
       <c r="BK26" s="1">
-        <v>1683.600000</v>
+        <v>1683.6</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1058.940000</v>
+        <v>-1058.94</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>23021.134226</v>
+        <v>23021.134225999998</v>
       </c>
       <c r="BO26" s="1">
-        <v>6.394760</v>
+        <v>6.3947599999999998</v>
       </c>
       <c r="BP26" s="1">
-        <v>1979.130000</v>
+        <v>1979.13</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1830.080000</v>
+        <v>-1830.08</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>23031.860211</v>
+        <v>23031.860210999999</v>
       </c>
       <c r="BT26" s="1">
-        <v>6.397739</v>
+        <v>6.3977389999999996</v>
       </c>
       <c r="BU26" s="1">
-        <v>2365.560000</v>
+        <v>2365.56</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2718.710000</v>
+        <v>-2718.71</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>23042.805925</v>
+        <v>23042.805925000001</v>
       </c>
       <c r="BY26" s="1">
         <v>6.400779</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2853.370000</v>
+        <v>2853.37</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3689.120000</v>
+        <v>-3689.12</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>23056.199923</v>
       </c>
       <c r="CD26" s="1">
-        <v>6.404500</v>
+        <v>6.4044999999999996</v>
       </c>
       <c r="CE26" s="1">
-        <v>4281.740000</v>
+        <v>4281.74</v>
       </c>
       <c r="CF26" s="1">
-        <v>-6030.060000</v>
+        <v>-6030.06</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>